--- a/Documents/Analytics/Analytics Project P8.xlsx
+++ b/Documents/Analytics/Analytics Project P8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danny\Documents\GroupProject\Documents\Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53A7302-1ECB-4704-8C3D-2EC1251D8C03}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C6EEB4-B2FA-41D2-A6B0-B8ACEE05EB51}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="768" firstSheet="15" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="768" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Naam" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="288">
   <si>
     <t>C1.0 Verwoorden.</t>
   </si>
@@ -2994,6 +2994,177 @@
   <si>
     <t>IO2A4</t>
   </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>loopt</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>EAC54</t>
+  </si>
+  <si>
+    <t>Groep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B </t>
+  </si>
+  <si>
+    <t>EAC61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groep </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>EA4CA</t>
+  </si>
+  <si>
+    <t>Leerling</t>
+  </si>
+  <si>
+    <t>Henk</t>
+  </si>
+  <si>
+    <t>zit in</t>
+  </si>
+  <si>
+    <t>groep</t>
+  </si>
+  <si>
+    <t>Karel</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>is zichtbaar voor</t>
+  </si>
+  <si>
+    <t>Leraar</t>
+  </si>
+  <si>
+    <t>Kees</t>
+  </si>
+  <si>
+    <t>maakt</t>
+  </si>
+  <si>
+    <t>aan</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Ibo</t>
+  </si>
+  <si>
+    <t>is zichtbaar binnen een</t>
+  </si>
+  <si>
+    <t>straal</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>is onderdeel van</t>
+  </si>
+  <si>
+    <t>afdeling</t>
+  </si>
+  <si>
+    <t>Kapper</t>
+  </si>
+  <si>
+    <t>Theater</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De grens is: </t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Afdeling</t>
+  </si>
+  <si>
+    <t>Straal</t>
+  </si>
+  <si>
+    <t>Gnaam</t>
+  </si>
+  <si>
+    <t>Anaam</t>
+  </si>
+  <si>
+    <t>POIid</t>
+  </si>
+  <si>
+    <t>RouteID</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle groepen</t>
+  </si>
+  <si>
+    <t>2. Naam van een groep</t>
+  </si>
+  <si>
+    <t>2. Naam van een route</t>
+  </si>
+  <si>
+    <t>2. Naam van een leerling</t>
+  </si>
+  <si>
+    <t>2. ID van een POI</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle POI</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle leerlingen</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle route</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle leraar</t>
+  </si>
+  <si>
+    <t>2. Naam van een leraar</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle afdelingen</t>
+  </si>
+  <si>
+    <t>2. ID van een afdeling</t>
+  </si>
+  <si>
+    <t>1. Verzameling van alle stralen</t>
+  </si>
+  <si>
+    <t>2. Aantal van een straal</t>
+  </si>
+  <si>
+    <t>Saantal</t>
+  </si>
 </sst>
 </file>
 
@@ -3629,7 +3800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3829,6 +4000,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3859,11 +4059,77 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3883,74 +4149,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3967,35 +4167,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -5312,56 +5491,56 @@
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="138" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="139"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="138">
         <v>309716</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="138" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="138" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="138" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="138" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5449,118 +5628,118 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="146" t="s">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="156" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="147"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
     </row>
     <row r="7" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="146" t="s">
+      <c r="A7" s="158"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="147"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="154" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="155"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155"/>
-      <c r="M9" s="155"/>
-      <c r="N9" s="155"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
     </row>
     <row r="11" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="161" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="146" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
     </row>
     <row r="12" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="146" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="156" t="s">
         <v>86</v>
       </c>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
     </row>
     <row r="13" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="146" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="156" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="157"/>
+      <c r="K13" s="157"/>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
@@ -5867,9 +6046,9 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="98"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="93"/>
@@ -5887,9 +6066,9 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39" s="93"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="93"/>
@@ -5907,9 +6086,9 @@
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40" s="93"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
       <c r="H40" s="93"/>
@@ -6127,9 +6306,9 @@
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51" s="98"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
       <c r="F51" s="93"/>
       <c r="G51" s="93"/>
       <c r="H51" s="93"/>
@@ -6147,9 +6326,9 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="93"/>
-      <c r="C52" s="131"/>
-      <c r="D52" s="131"/>
-      <c r="E52" s="131"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
       <c r="F52" s="93"/>
       <c r="G52" s="93"/>
       <c r="H52" s="93"/>
@@ -6167,9 +6346,9 @@
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53" s="93"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
       <c r="F53" s="93"/>
       <c r="G53" s="93"/>
       <c r="H53" s="93"/>
@@ -6387,9 +6566,9 @@
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64" s="93"/>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
+      <c r="C64" s="152"/>
+      <c r="D64" s="152"/>
+      <c r="E64" s="152"/>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
       <c r="H64" s="93"/>
@@ -6407,9 +6586,9 @@
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="93"/>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
+      <c r="C65" s="152"/>
+      <c r="D65" s="152"/>
+      <c r="E65" s="152"/>
       <c r="F65" s="93"/>
       <c r="G65" s="93"/>
       <c r="H65" s="93"/>
@@ -6427,9 +6606,9 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="93"/>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
+      <c r="C66" s="152"/>
+      <c r="D66" s="152"/>
+      <c r="E66" s="152"/>
       <c r="F66" s="93"/>
       <c r="G66" s="93"/>
       <c r="H66" s="93"/>
@@ -6647,12 +6826,12 @@
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="98"/>
-      <c r="C77" s="131"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
-      <c r="F77" s="131"/>
-      <c r="G77" s="131"/>
-      <c r="H77" s="131"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="152"/>
+      <c r="F77" s="152"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="152"/>
       <c r="I77" s="93"/>
       <c r="J77" s="93"/>
       <c r="K77" s="93"/>
@@ -6667,12 +6846,12 @@
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B78" s="93"/>
-      <c r="C78" s="131"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
-      <c r="F78" s="131"/>
-      <c r="G78" s="131"/>
-      <c r="H78" s="131"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
+      <c r="F78" s="152"/>
+      <c r="G78" s="152"/>
+      <c r="H78" s="152"/>
       <c r="I78" s="93"/>
       <c r="J78" s="93"/>
       <c r="K78" s="93"/>
@@ -6687,12 +6866,12 @@
     </row>
     <row r="79" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B79" s="93"/>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
+      <c r="C79" s="152"/>
+      <c r="D79" s="152"/>
+      <c r="E79" s="152"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="152"/>
+      <c r="H79" s="152"/>
       <c r="I79" s="93"/>
       <c r="J79" s="93"/>
       <c r="K79" s="93"/>
@@ -6907,12 +7086,12 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="98"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="131"/>
-      <c r="F90" s="131"/>
-      <c r="G90" s="131"/>
-      <c r="H90" s="131"/>
+      <c r="C90" s="152"/>
+      <c r="D90" s="152"/>
+      <c r="E90" s="152"/>
+      <c r="F90" s="152"/>
+      <c r="G90" s="152"/>
+      <c r="H90" s="152"/>
       <c r="I90" s="93"/>
       <c r="J90" s="93"/>
       <c r="K90" s="93"/>
@@ -6927,12 +7106,12 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="93"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="131"/>
-      <c r="F91" s="131"/>
-      <c r="G91" s="131"/>
-      <c r="H91" s="131"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="152"/>
+      <c r="F91" s="152"/>
+      <c r="G91" s="152"/>
+      <c r="H91" s="152"/>
       <c r="I91" s="93"/>
       <c r="J91" s="93"/>
       <c r="K91" s="93"/>
@@ -6947,12 +7126,12 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="93"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="131"/>
-      <c r="H92" s="131"/>
+      <c r="C92" s="152"/>
+      <c r="D92" s="152"/>
+      <c r="E92" s="152"/>
+      <c r="F92" s="152"/>
+      <c r="G92" s="152"/>
+      <c r="H92" s="152"/>
       <c r="I92" s="93"/>
       <c r="J92" s="93"/>
       <c r="K92" s="93"/>
@@ -7007,39 +7186,39 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="F92:H92"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="F79:H79"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="H13:N13"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="F92:H92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7114,118 +7293,118 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="156" t="s">
+      <c r="A7" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="149"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="149"/>
+      <c r="B7" s="170"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
     </row>
     <row r="9" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="146" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="147"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="157"/>
+      <c r="K9" s="157"/>
+      <c r="L9" s="157"/>
+      <c r="M9" s="157"/>
+      <c r="N9" s="157"/>
     </row>
     <row r="10" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="146" t="s">
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="147"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="147"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="157"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="N10" s="157"/>
     </row>
     <row r="11" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="146" t="s">
+      <c r="A11" s="158"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="147"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="N11" s="157"/>
     </row>
     <row r="12" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="146" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="147"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="N12" s="157"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="56" t="s">
@@ -7525,11 +7704,11 @@
       <c r="B37" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="C37" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="134"/>
-      <c r="E37" s="135"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="174"/>
       <c r="F37" s="86"/>
       <c r="G37" s="86"/>
       <c r="H37" s="86"/>
@@ -7548,11 +7727,11 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="86"/>
-      <c r="C38" s="133" t="s">
+      <c r="C38" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="134"/>
-      <c r="E38" s="135"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="174"/>
       <c r="F38" s="86"/>
       <c r="G38" s="86"/>
       <c r="H38" s="86"/>
@@ -7571,11 +7750,11 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="86"/>
-      <c r="C39" s="136" t="s">
+      <c r="C39" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="D39" s="137"/>
-      <c r="E39" s="138"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="177"/>
       <c r="F39" s="86"/>
       <c r="G39" s="86"/>
       <c r="H39" s="86"/>
@@ -7832,11 +8011,11 @@
       <c r="B50" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="132" t="s">
+      <c r="C50" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
       <c r="F50" s="86"/>
       <c r="G50" s="86"/>
       <c r="H50" s="86"/>
@@ -7855,11 +8034,11 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B51" s="86"/>
-      <c r="C51" s="132" t="s">
+      <c r="C51" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
       <c r="F51" s="86"/>
       <c r="G51" s="86"/>
       <c r="H51" s="86"/>
@@ -7878,11 +8057,11 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B52" s="86"/>
-      <c r="C52" s="132" t="s">
+      <c r="C52" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="178"/>
       <c r="F52" s="86"/>
       <c r="G52" s="86"/>
       <c r="H52" s="86"/>
@@ -8137,11 +8316,11 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B63" s="86"/>
-      <c r="C63" s="132" t="s">
+      <c r="C63" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
+      <c r="D63" s="178"/>
+      <c r="E63" s="178"/>
       <c r="F63" s="86"/>
       <c r="G63" s="86"/>
       <c r="H63" s="86"/>
@@ -8160,11 +8339,11 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B64" s="86"/>
-      <c r="C64" s="132" t="s">
+      <c r="C64" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
+      <c r="D64" s="178"/>
+      <c r="E64" s="178"/>
       <c r="F64" s="86"/>
       <c r="G64" s="86"/>
       <c r="H64" s="86"/>
@@ -8183,11 +8362,11 @@
     </row>
     <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65" s="86"/>
-      <c r="C65" s="132" t="s">
+      <c r="C65" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="178"/>
       <c r="F65" s="86"/>
       <c r="G65" s="86"/>
       <c r="H65" s="86"/>
@@ -8444,16 +8623,16 @@
       <c r="B76" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C76" s="133" t="s">
+      <c r="C76" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="D76" s="134"/>
-      <c r="E76" s="135"/>
-      <c r="F76" s="132" t="s">
+      <c r="D76" s="173"/>
+      <c r="E76" s="174"/>
+      <c r="F76" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="G76" s="132"/>
-      <c r="H76" s="132"/>
+      <c r="G76" s="178"/>
+      <c r="H76" s="178"/>
       <c r="I76" s="86"/>
       <c r="J76" s="86"/>
       <c r="K76" s="86"/>
@@ -8469,16 +8648,16 @@
     </row>
     <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77" s="86"/>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="172" t="s">
         <v>183</v>
       </c>
-      <c r="D77" s="134"/>
-      <c r="E77" s="135"/>
-      <c r="F77" s="132" t="s">
+      <c r="D77" s="173"/>
+      <c r="E77" s="174"/>
+      <c r="F77" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="G77" s="132"/>
-      <c r="H77" s="132"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
       <c r="I77" s="86"/>
       <c r="J77" s="86"/>
       <c r="K77" s="86"/>
@@ -8494,16 +8673,16 @@
     </row>
     <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78" s="86"/>
-      <c r="C78" s="136" t="s">
+      <c r="C78" s="175" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="137"/>
-      <c r="E78" s="138"/>
-      <c r="F78" s="132" t="s">
+      <c r="D78" s="176"/>
+      <c r="E78" s="177"/>
+      <c r="F78" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="G78" s="132"/>
-      <c r="H78" s="132"/>
+      <c r="G78" s="178"/>
+      <c r="H78" s="178"/>
       <c r="I78" s="86"/>
       <c r="J78" s="86"/>
       <c r="K78" s="86"/>
@@ -8757,16 +8936,16 @@
       <c r="B89" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C89" s="132" t="s">
+      <c r="C89" s="178" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="132"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132" t="s">
+      <c r="D89" s="178"/>
+      <c r="E89" s="178"/>
+      <c r="F89" s="178" t="s">
         <v>189</v>
       </c>
-      <c r="G89" s="132"/>
-      <c r="H89" s="132"/>
+      <c r="G89" s="178"/>
+      <c r="H89" s="178"/>
       <c r="I89" s="86"/>
       <c r="J89" s="86"/>
       <c r="K89" s="86"/>
@@ -8782,16 +8961,16 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B90" s="86"/>
-      <c r="C90" s="132" t="s">
+      <c r="C90" s="178" t="s">
         <v>187</v>
       </c>
-      <c r="D90" s="132"/>
-      <c r="E90" s="132"/>
-      <c r="F90" s="132" t="s">
+      <c r="D90" s="178"/>
+      <c r="E90" s="178"/>
+      <c r="F90" s="178" t="s">
         <v>191</v>
       </c>
-      <c r="G90" s="132"/>
-      <c r="H90" s="132"/>
+      <c r="G90" s="178"/>
+      <c r="H90" s="178"/>
       <c r="I90" s="86"/>
       <c r="J90" s="86"/>
       <c r="K90" s="86"/>
@@ -8807,16 +8986,16 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B91" s="86"/>
-      <c r="C91" s="132" t="s">
+      <c r="C91" s="178" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="132"/>
-      <c r="E91" s="132"/>
-      <c r="F91" s="132" t="s">
+      <c r="D91" s="178"/>
+      <c r="E91" s="178"/>
+      <c r="F91" s="178" t="s">
         <v>192</v>
       </c>
-      <c r="G91" s="132"/>
-      <c r="H91" s="132"/>
+      <c r="G91" s="178"/>
+      <c r="H91" s="178"/>
       <c r="I91" s="86"/>
       <c r="J91" s="86"/>
       <c r="K91" s="86"/>
@@ -9011,9 +9190,9 @@
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B104" s="98"/>
-      <c r="C104" s="131"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="131"/>
+      <c r="C104" s="152"/>
+      <c r="D104" s="152"/>
+      <c r="E104" s="152"/>
       <c r="F104" s="93"/>
       <c r="G104" s="93"/>
       <c r="H104" s="93"/>
@@ -9028,9 +9207,9 @@
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B105" s="93"/>
-      <c r="C105" s="131"/>
-      <c r="D105" s="131"/>
-      <c r="E105" s="131"/>
+      <c r="C105" s="152"/>
+      <c r="D105" s="152"/>
+      <c r="E105" s="152"/>
       <c r="F105" s="93"/>
       <c r="G105" s="93"/>
       <c r="H105" s="93"/>
@@ -9045,9 +9224,9 @@
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B106" s="93"/>
-      <c r="C106" s="131"/>
-      <c r="D106" s="131"/>
-      <c r="E106" s="131"/>
+      <c r="C106" s="152"/>
+      <c r="D106" s="152"/>
+      <c r="E106" s="152"/>
       <c r="F106" s="93"/>
       <c r="G106" s="93"/>
       <c r="H106" s="93"/>
@@ -9232,9 +9411,9 @@
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" s="98"/>
-      <c r="C117" s="131"/>
-      <c r="D117" s="131"/>
-      <c r="E117" s="131"/>
+      <c r="C117" s="152"/>
+      <c r="D117" s="152"/>
+      <c r="E117" s="152"/>
       <c r="F117" s="93"/>
       <c r="G117" s="93"/>
       <c r="H117" s="93"/>
@@ -9249,9 +9428,9 @@
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B118" s="93"/>
-      <c r="C118" s="131"/>
-      <c r="D118" s="131"/>
-      <c r="E118" s="131"/>
+      <c r="C118" s="152"/>
+      <c r="D118" s="152"/>
+      <c r="E118" s="152"/>
       <c r="F118" s="93"/>
       <c r="G118" s="93"/>
       <c r="H118" s="93"/>
@@ -9266,9 +9445,9 @@
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B119" s="93"/>
-      <c r="C119" s="131"/>
-      <c r="D119" s="131"/>
-      <c r="E119" s="131"/>
+      <c r="C119" s="152"/>
+      <c r="D119" s="152"/>
+      <c r="E119" s="152"/>
       <c r="F119" s="93"/>
       <c r="G119" s="93"/>
       <c r="H119" s="93"/>
@@ -9453,9 +9632,9 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" s="93"/>
-      <c r="C130" s="131"/>
-      <c r="D130" s="131"/>
-      <c r="E130" s="131"/>
+      <c r="C130" s="152"/>
+      <c r="D130" s="152"/>
+      <c r="E130" s="152"/>
       <c r="F130" s="93"/>
       <c r="G130" s="93"/>
       <c r="H130" s="93"/>
@@ -9470,9 +9649,9 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" s="93"/>
-      <c r="C131" s="131"/>
-      <c r="D131" s="131"/>
-      <c r="E131" s="131"/>
+      <c r="C131" s="152"/>
+      <c r="D131" s="152"/>
+      <c r="E131" s="152"/>
       <c r="F131" s="93"/>
       <c r="G131" s="93"/>
       <c r="H131" s="93"/>
@@ -9487,9 +9666,9 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" s="93"/>
-      <c r="C132" s="131"/>
-      <c r="D132" s="131"/>
-      <c r="E132" s="131"/>
+      <c r="C132" s="152"/>
+      <c r="D132" s="152"/>
+      <c r="E132" s="152"/>
       <c r="F132" s="93"/>
       <c r="G132" s="93"/>
       <c r="H132" s="93"/>
@@ -9665,12 +9844,12 @@
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" s="98"/>
-      <c r="C143" s="131"/>
-      <c r="D143" s="131"/>
-      <c r="E143" s="131"/>
-      <c r="F143" s="131"/>
-      <c r="G143" s="131"/>
-      <c r="H143" s="131"/>
+      <c r="C143" s="152"/>
+      <c r="D143" s="152"/>
+      <c r="E143" s="152"/>
+      <c r="F143" s="152"/>
+      <c r="G143" s="152"/>
+      <c r="H143" s="152"/>
       <c r="I143" s="93"/>
       <c r="J143" s="93"/>
       <c r="K143" s="93"/>
@@ -9681,12 +9860,12 @@
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B144" s="93"/>
-      <c r="C144" s="131"/>
-      <c r="D144" s="131"/>
-      <c r="E144" s="131"/>
-      <c r="F144" s="131"/>
-      <c r="G144" s="131"/>
-      <c r="H144" s="131"/>
+      <c r="C144" s="152"/>
+      <c r="D144" s="152"/>
+      <c r="E144" s="152"/>
+      <c r="F144" s="152"/>
+      <c r="G144" s="152"/>
+      <c r="H144" s="152"/>
       <c r="I144" s="93"/>
       <c r="J144" s="93"/>
       <c r="K144" s="93"/>
@@ -9697,12 +9876,12 @@
     </row>
     <row r="145" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B145" s="93"/>
-      <c r="C145" s="131"/>
-      <c r="D145" s="131"/>
-      <c r="E145" s="131"/>
-      <c r="F145" s="131"/>
-      <c r="G145" s="131"/>
-      <c r="H145" s="131"/>
+      <c r="C145" s="152"/>
+      <c r="D145" s="152"/>
+      <c r="E145" s="152"/>
+      <c r="F145" s="152"/>
+      <c r="G145" s="152"/>
+      <c r="H145" s="152"/>
       <c r="I145" s="93"/>
       <c r="J145" s="93"/>
       <c r="K145" s="93"/>
@@ -9873,12 +10052,12 @@
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B156" s="98"/>
-      <c r="C156" s="131"/>
-      <c r="D156" s="131"/>
-      <c r="E156" s="131"/>
-      <c r="F156" s="131"/>
-      <c r="G156" s="131"/>
-      <c r="H156" s="131"/>
+      <c r="C156" s="152"/>
+      <c r="D156" s="152"/>
+      <c r="E156" s="152"/>
+      <c r="F156" s="152"/>
+      <c r="G156" s="152"/>
+      <c r="H156" s="152"/>
       <c r="I156" s="93"/>
       <c r="J156" s="93"/>
       <c r="K156" s="93"/>
@@ -9889,12 +10068,12 @@
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B157" s="93"/>
-      <c r="C157" s="131"/>
-      <c r="D157" s="131"/>
-      <c r="E157" s="131"/>
-      <c r="F157" s="131"/>
-      <c r="G157" s="131"/>
-      <c r="H157" s="131"/>
+      <c r="C157" s="152"/>
+      <c r="D157" s="152"/>
+      <c r="E157" s="152"/>
+      <c r="F157" s="152"/>
+      <c r="G157" s="152"/>
+      <c r="H157" s="152"/>
       <c r="I157" s="93"/>
       <c r="J157" s="93"/>
       <c r="K157" s="93"/>
@@ -9905,12 +10084,12 @@
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B158" s="93"/>
-      <c r="C158" s="131"/>
-      <c r="D158" s="131"/>
-      <c r="E158" s="131"/>
-      <c r="F158" s="131"/>
-      <c r="G158" s="131"/>
-      <c r="H158" s="131"/>
+      <c r="C158" s="152"/>
+      <c r="D158" s="152"/>
+      <c r="E158" s="152"/>
+      <c r="F158" s="152"/>
+      <c r="G158" s="152"/>
+      <c r="H158" s="152"/>
       <c r="I158" s="93"/>
       <c r="J158" s="93"/>
       <c r="K158" s="93"/>
@@ -10725,60 +10904,60 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="F91:H91"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="F78:H78"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:N12"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="F76:H76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="F78:H78"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="F89:H89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="F91:H91"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="F158:H158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10853,24 +11032,24 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
@@ -10880,127 +11059,127 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="168" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="162" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="162" t="s">
+      <c r="A10" s="158"/>
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="181" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="162" t="s">
+      <c r="B12" s="182"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="179" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="148"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="162" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
+      <c r="D13" s="159"/>
+      <c r="E13" s="159"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="148"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="162" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="148"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="162" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -11181,55 +11360,55 @@
       <c r="C44" s="93"/>
       <c r="D44" s="93"/>
       <c r="E44" s="93"/>
-      <c r="F44" s="167"/>
+      <c r="F44" s="121"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="169"/>
-      <c r="F45" s="170"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="124"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="169"/>
-      <c r="F46" s="170"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="124"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="169"/>
-      <c r="F47" s="170"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="124"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="169"/>
-      <c r="F48" s="170"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="124"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="169"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="123"/>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="169"/>
+      <c r="C50" s="122"/>
+      <c r="D50" s="122"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="123"/>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
+      <c r="C51" s="122"/>
+      <c r="D51" s="122"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="169"/>
-      <c r="F52" s="169"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C53" s="93"/>
@@ -11238,14 +11417,14 @@
       <c r="F53" s="93"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="171"/>
-      <c r="D54" s="171"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
       <c r="E54" s="93"/>
       <c r="F54" s="93"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
       <c r="E55" s="93"/>
       <c r="F55" s="93"/>
     </row>
@@ -11256,20 +11435,13 @@
       <c r="F56" s="93"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="171"/>
-      <c r="D57" s="171"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
       <c r="E57" s="93"/>
       <c r="F57" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H7:N7"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="H15:N15"/>
     <mergeCell ref="A12:G12"/>
@@ -11278,6 +11450,13 @@
     <mergeCell ref="H13:N13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="H14:N14"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H7:N7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11352,24 +11531,24 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
       <c r="Q6" s="66"/>
       <c r="S6" s="67"/>
     </row>
@@ -11381,15 +11560,15 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
       <c r="Q7" s="66"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -11397,24 +11576,24 @@
       <c r="S8" s="68"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="159" t="s">
+      <c r="A9" s="166" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="162" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="179" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="163"/>
-      <c r="J9" s="163"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="163"/>
-      <c r="M9" s="163"/>
-      <c r="N9" s="163"/>
+      <c r="I9" s="180"/>
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="180"/>
+      <c r="N9" s="180"/>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
@@ -11424,15 +11603,15 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="22"/>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="I10" s="163"/>
-      <c r="J10" s="163"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="163"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
+      <c r="L10" s="180"/>
+      <c r="M10" s="180"/>
+      <c r="N10" s="180"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -11442,33 +11621,33 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="161" t="s">
+      <c r="H11" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="162" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="179" t="s">
         <v>126</v>
       </c>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="163"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="180"/>
+      <c r="L12" s="180"/>
+      <c r="M12" s="180"/>
+      <c r="N12" s="180"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
@@ -11478,15 +11657,15 @@
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="168" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
-      <c r="L13" s="163"/>
-      <c r="M13" s="163"/>
-      <c r="N13" s="163"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="180"/>
+      <c r="N13" s="180"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
@@ -11496,15 +11675,15 @@
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="161" t="s">
+      <c r="H14" s="168" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
-      <c r="L14" s="163"/>
-      <c r="M14" s="163"/>
-      <c r="N14" s="163"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="180"/>
+      <c r="K14" s="180"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="180"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="23"/>
@@ -11514,15 +11693,15 @@
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="161" t="s">
+      <c r="H15" s="168" t="s">
         <v>129</v>
       </c>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="163"/>
-      <c r="M15" s="163"/>
-      <c r="N15" s="163"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="180"/>
       <c r="T15" s="69"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -11533,15 +11712,15 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="161" t="s">
+      <c r="H16" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="163"/>
-      <c r="M16" s="163"/>
-      <c r="N16" s="163"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="180"/>
       <c r="T16" s="68"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -11552,15 +11731,15 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="23"/>
-      <c r="H17" s="161" t="s">
+      <c r="H17" s="168" t="s">
         <v>132</v>
       </c>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="163"/>
-      <c r="M17" s="163"/>
-      <c r="N17" s="163"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="180"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
@@ -11570,15 +11749,15 @@
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
-      <c r="H18" s="161" t="s">
+      <c r="H18" s="168" t="s">
         <v>131</v>
       </c>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="180"/>
+      <c r="K18" s="180"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="180"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T19" s="69"/>
@@ -11877,12 +12056,12 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="98"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
       <c r="I46" s="86"/>
       <c r="J46" s="86"/>
       <c r="K46" s="93"/>
@@ -11896,12 +12075,12 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" s="93"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
       <c r="I47" s="86"/>
       <c r="J47" s="86"/>
       <c r="K47" s="93"/>
@@ -11915,12 +12094,12 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" s="93"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
       <c r="I48" s="86"/>
       <c r="J48" s="86"/>
       <c r="K48" s="93"/>
@@ -12124,12 +12303,12 @@
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="98"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
       <c r="I59" s="86"/>
       <c r="J59" s="86"/>
       <c r="K59" s="93"/>
@@ -12143,12 +12322,12 @@
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="93"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="131"/>
-      <c r="H60" s="131"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
+      <c r="F60" s="152"/>
+      <c r="G60" s="152"/>
+      <c r="H60" s="152"/>
       <c r="I60" s="86"/>
       <c r="J60" s="86"/>
       <c r="K60" s="93"/>
@@ -12162,12 +12341,12 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="93"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
       <c r="I61" s="86"/>
       <c r="J61" s="86"/>
       <c r="K61" s="93"/>
@@ -12371,9 +12550,9 @@
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="93"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
+      <c r="C72" s="152"/>
+      <c r="D72" s="152"/>
+      <c r="E72" s="152"/>
       <c r="F72" s="93"/>
       <c r="G72" s="93"/>
       <c r="H72" s="93"/>
@@ -12390,9 +12569,9 @@
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="93"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
+      <c r="C73" s="152"/>
+      <c r="D73" s="152"/>
+      <c r="E73" s="152"/>
       <c r="F73" s="93"/>
       <c r="G73" s="93"/>
       <c r="H73" s="93"/>
@@ -12409,9 +12588,9 @@
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74" s="93"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
+      <c r="C74" s="152"/>
+      <c r="D74" s="152"/>
+      <c r="E74" s="152"/>
       <c r="F74" s="93"/>
       <c r="G74" s="93"/>
       <c r="H74" s="93"/>
@@ -12850,9 +13029,9 @@
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B113" s="98"/>
-      <c r="C113" s="131"/>
-      <c r="D113" s="131"/>
-      <c r="E113" s="131"/>
+      <c r="C113" s="152"/>
+      <c r="D113" s="152"/>
+      <c r="E113" s="152"/>
       <c r="F113" s="93"/>
       <c r="G113" s="93"/>
       <c r="H113" s="93"/>
@@ -12868,9 +13047,9 @@
     </row>
     <row r="114" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B114" s="93"/>
-      <c r="C114" s="131"/>
-      <c r="D114" s="131"/>
-      <c r="E114" s="131"/>
+      <c r="C114" s="152"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
       <c r="F114" s="93"/>
       <c r="G114" s="93"/>
       <c r="H114" s="93"/>
@@ -12886,9 +13065,9 @@
     </row>
     <row r="115" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B115" s="93"/>
-      <c r="C115" s="131"/>
-      <c r="D115" s="131"/>
-      <c r="E115" s="131"/>
+      <c r="C115" s="152"/>
+      <c r="D115" s="152"/>
+      <c r="E115" s="152"/>
       <c r="F115" s="93"/>
       <c r="G115" s="93"/>
       <c r="H115" s="93"/>
@@ -13084,9 +13263,9 @@
     </row>
     <row r="126" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B126" s="98"/>
-      <c r="C126" s="131"/>
-      <c r="D126" s="131"/>
-      <c r="E126" s="131"/>
+      <c r="C126" s="152"/>
+      <c r="D126" s="152"/>
+      <c r="E126" s="152"/>
       <c r="F126" s="93"/>
       <c r="G126" s="93"/>
       <c r="H126" s="93"/>
@@ -13102,9 +13281,9 @@
     </row>
     <row r="127" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B127" s="93"/>
-      <c r="C127" s="131"/>
-      <c r="D127" s="131"/>
-      <c r="E127" s="131"/>
+      <c r="C127" s="152"/>
+      <c r="D127" s="152"/>
+      <c r="E127" s="152"/>
       <c r="F127" s="93"/>
       <c r="G127" s="93"/>
       <c r="H127" s="93"/>
@@ -13120,9 +13299,9 @@
     </row>
     <row r="128" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B128" s="93"/>
-      <c r="C128" s="131"/>
-      <c r="D128" s="131"/>
-      <c r="E128" s="131"/>
+      <c r="C128" s="152"/>
+      <c r="D128" s="152"/>
+      <c r="E128" s="152"/>
       <c r="F128" s="93"/>
       <c r="G128" s="93"/>
       <c r="H128" s="93"/>
@@ -13318,9 +13497,9 @@
     </row>
     <row r="139" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B139" s="93"/>
-      <c r="C139" s="131"/>
-      <c r="D139" s="131"/>
-      <c r="E139" s="131"/>
+      <c r="C139" s="152"/>
+      <c r="D139" s="152"/>
+      <c r="E139" s="152"/>
       <c r="F139" s="93"/>
       <c r="G139" s="93"/>
       <c r="H139" s="93"/>
@@ -13336,9 +13515,9 @@
     </row>
     <row r="140" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B140" s="93"/>
-      <c r="C140" s="131"/>
-      <c r="D140" s="131"/>
-      <c r="E140" s="131"/>
+      <c r="C140" s="152"/>
+      <c r="D140" s="152"/>
+      <c r="E140" s="152"/>
       <c r="F140" s="93"/>
       <c r="G140" s="93"/>
       <c r="H140" s="93"/>
@@ -13354,9 +13533,9 @@
     </row>
     <row r="141" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B141" s="93"/>
-      <c r="C141" s="131"/>
-      <c r="D141" s="131"/>
-      <c r="E141" s="131"/>
+      <c r="C141" s="152"/>
+      <c r="D141" s="152"/>
+      <c r="E141" s="152"/>
       <c r="F141" s="93"/>
       <c r="G141" s="93"/>
       <c r="H141" s="93"/>
@@ -13408,20 +13587,15 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
     <mergeCell ref="C72:E72"/>
     <mergeCell ref="C73:E73"/>
     <mergeCell ref="C74:E74"/>
@@ -13438,15 +13612,20 @@
     <mergeCell ref="F60:H60"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="F61:H61"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="H12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13522,24 +13701,24 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
       <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -13550,15 +13729,15 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
       <c r="Q7" s="66"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -13569,15 +13748,15 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="161" t="s">
+      <c r="H8" s="168" t="s">
         <v>136</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
       <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13588,15 +13767,15 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="168" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
       <c r="Q9" s="66"/>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13607,15 +13786,15 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
       <c r="Q10" s="66"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13626,15 +13805,15 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="161" t="s">
+      <c r="H11" s="168" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
       <c r="Q11" s="66"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13645,15 +13824,15 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="161" t="s">
+      <c r="H12" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
       <c r="Q12" s="66"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13664,15 +13843,15 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="168" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
       <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13683,15 +13862,15 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="161" t="s">
+      <c r="H14" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
       <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -13702,15 +13881,15 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="161" t="s">
+      <c r="H15" s="168" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
       <c r="Q15" s="66"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -13897,7 +14076,7 @@
       <c r="J36" s="116"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="173"/>
+      <c r="B37" s="127"/>
       <c r="C37" s="116"/>
       <c r="D37" s="116"/>
       <c r="E37" s="116"/>
@@ -13910,7 +14089,7 @@
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="116"/>
       <c r="C38" s="116"/>
-      <c r="D38" s="172"/>
+      <c r="D38" s="126"/>
       <c r="E38" s="116"/>
       <c r="F38" s="116"/>
       <c r="G38" s="43"/>
@@ -13952,35 +14131,35 @@
       <c r="J41" s="43"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="174"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
       <c r="I42" s="116"/>
       <c r="J42" s="116"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="116"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
       <c r="I43" s="116"/>
       <c r="J43" s="116"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="116"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
       <c r="I44" s="116"/>
       <c r="J44" s="116"/>
     </row>
@@ -14040,7 +14219,7 @@
       <c r="J49" s="116"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="173"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="116"/>
       <c r="D50" s="116"/>
       <c r="E50" s="116"/>
@@ -14053,7 +14232,7 @@
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="116"/>
       <c r="C51" s="116"/>
-      <c r="D51" s="172"/>
+      <c r="D51" s="126"/>
       <c r="E51" s="116"/>
       <c r="F51" s="116"/>
       <c r="G51" s="43"/>
@@ -14095,51 +14274,40 @@
       <c r="J54" s="43"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="174"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="152"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
       <c r="I55" s="116"/>
       <c r="J55" s="116"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="116"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="152"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
       <c r="I56" s="116"/>
       <c r="J56" s="116"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="116"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
       <c r="I57" s="116"/>
       <c r="J57" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="C42:E42"/>
@@ -14152,6 +14320,17 @@
     <mergeCell ref="C44:E44"/>
     <mergeCell ref="C56:E56"/>
     <mergeCell ref="C57:E57"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14226,24 +14405,24 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="166" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
       <c r="Q6" s="66"/>
       <c r="R6" s="69"/>
       <c r="S6" s="68"/>
@@ -14257,15 +14436,15 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-      <c r="H7" s="161" t="s">
+      <c r="H7" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
       <c r="Q7" s="66"/>
       <c r="R7" s="69"/>
       <c r="S7" s="68"/>
@@ -14279,15 +14458,15 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="161" t="s">
+      <c r="H8" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
       <c r="Q8" s="66"/>
       <c r="R8" s="69"/>
       <c r="S8" s="68"/>
@@ -14301,15 +14480,15 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-      <c r="H9" s="161" t="s">
+      <c r="H9" s="168" t="s">
         <v>149</v>
       </c>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
       <c r="Q9" s="66"/>
       <c r="R9" s="69"/>
       <c r="S9" s="68"/>
@@ -14323,15 +14502,15 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
-      <c r="H10" s="161" t="s">
+      <c r="H10" s="168" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
       <c r="Q10" s="66"/>
       <c r="R10" s="69"/>
       <c r="S10" s="68"/>
@@ -14345,13 +14524,13 @@
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
       <c r="Q11" s="66"/>
       <c r="R11" s="69"/>
       <c r="S11" s="69"/>
@@ -14365,15 +14544,15 @@
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
-      <c r="H12" s="161" t="s">
+      <c r="H12" s="168" t="s">
         <v>151</v>
       </c>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
       <c r="Q12" s="66"/>
       <c r="S12" s="69"/>
     </row>
@@ -14385,15 +14564,15 @@
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
-      <c r="H13" s="161" t="s">
+      <c r="H13" s="168" t="s">
         <v>152</v>
       </c>
-      <c r="I13" s="126"/>
-      <c r="J13" s="126"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
       <c r="Q13" s="66"/>
       <c r="S13" s="69"/>
     </row>
@@ -14405,15 +14584,15 @@
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="161" t="s">
+      <c r="H14" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
       <c r="Q14" s="66"/>
       <c r="S14" s="69"/>
     </row>
@@ -14425,15 +14604,15 @@
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="161" t="s">
+      <c r="H15" s="168" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
       <c r="Q15" s="66"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -14702,7 +14881,7 @@
       <c r="Q38" s="116"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B39" s="173"/>
+      <c r="B39" s="127"/>
       <c r="C39" s="116"/>
       <c r="D39" s="116"/>
       <c r="E39" s="116"/>
@@ -14722,7 +14901,7 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B40" s="116"/>
       <c r="C40" s="116"/>
-      <c r="D40" s="172"/>
+      <c r="D40" s="126"/>
       <c r="E40" s="116"/>
       <c r="F40" s="116"/>
       <c r="G40" s="43"/>
@@ -14792,13 +14971,13 @@
       <c r="Q43" s="116"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="174"/>
-      <c r="C44" s="131"/>
-      <c r="D44" s="131"/>
-      <c r="E44" s="131"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
       <c r="I44" s="116"/>
       <c r="J44" s="116"/>
       <c r="K44" s="116"/>
@@ -14811,12 +14990,12 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B45" s="116"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="131"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="131"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
       <c r="I45" s="116"/>
       <c r="J45" s="116"/>
       <c r="K45" s="116"/>
@@ -14829,12 +15008,12 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B46" s="116"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="131"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
       <c r="I46" s="116"/>
       <c r="J46" s="116"/>
       <c r="K46" s="116"/>
@@ -14936,7 +15115,7 @@
       <c r="Q51" s="116"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B52" s="173"/>
+      <c r="B52" s="127"/>
       <c r="C52" s="116"/>
       <c r="D52" s="116"/>
       <c r="E52" s="116"/>
@@ -14956,7 +15135,7 @@
     <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="116"/>
       <c r="C53" s="116"/>
-      <c r="D53" s="172"/>
+      <c r="D53" s="126"/>
       <c r="E53" s="116"/>
       <c r="F53" s="116"/>
       <c r="G53" s="43"/>
@@ -15026,13 +15205,13 @@
       <c r="Q56" s="116"/>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="174"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
       <c r="I57" s="116"/>
       <c r="J57" s="116"/>
       <c r="K57" s="116"/>
@@ -15045,12 +15224,12 @@
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B58" s="116"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
       <c r="I58" s="116"/>
       <c r="J58" s="116"/>
       <c r="K58" s="116"/>
@@ -15063,12 +15242,12 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B59" s="116"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
       <c r="I59" s="116"/>
       <c r="J59" s="116"/>
       <c r="K59" s="116"/>
@@ -15099,29 +15278,29 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="H8:N8"/>
     <mergeCell ref="H9:N9"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="H15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15652,9 +15831,9 @@
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B68" s="98"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="131"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="152"/>
       <c r="F68" s="93"/>
       <c r="G68" s="93"/>
       <c r="H68" s="93"/>
@@ -15670,9 +15849,9 @@
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B69" s="93"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="131"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="152"/>
+      <c r="E69" s="152"/>
       <c r="F69" s="93"/>
       <c r="G69" s="93"/>
       <c r="H69" s="93"/>
@@ -15688,9 +15867,9 @@
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B70" s="93"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="131"/>
-      <c r="E70" s="131"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="152"/>
+      <c r="E70" s="152"/>
       <c r="F70" s="93"/>
       <c r="G70" s="93"/>
       <c r="H70" s="93"/>
@@ -15886,9 +16065,9 @@
     </row>
     <row r="81" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B81" s="98"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="152"/>
+      <c r="E81" s="152"/>
       <c r="F81" s="93"/>
       <c r="G81" s="93"/>
       <c r="H81" s="93"/>
@@ -15904,9 +16083,9 @@
     </row>
     <row r="82" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B82" s="93"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
+      <c r="C82" s="152"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="152"/>
       <c r="F82" s="93"/>
       <c r="G82" s="93"/>
       <c r="H82" s="93"/>
@@ -15922,9 +16101,9 @@
     </row>
     <row r="83" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B83" s="93"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="C83" s="152"/>
+      <c r="D83" s="152"/>
+      <c r="E83" s="152"/>
       <c r="F83" s="93"/>
       <c r="G83" s="93"/>
       <c r="H83" s="93"/>
@@ -16120,9 +16299,9 @@
     </row>
     <row r="94" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B94" s="93"/>
-      <c r="C94" s="131"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="131"/>
+      <c r="C94" s="152"/>
+      <c r="D94" s="152"/>
+      <c r="E94" s="152"/>
       <c r="F94" s="93"/>
       <c r="G94" s="93"/>
       <c r="H94" s="93"/>
@@ -16138,9 +16317,9 @@
     </row>
     <row r="95" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B95" s="93"/>
-      <c r="C95" s="131"/>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
+      <c r="C95" s="152"/>
+      <c r="D95" s="152"/>
+      <c r="E95" s="152"/>
       <c r="F95" s="93"/>
       <c r="G95" s="93"/>
       <c r="H95" s="93"/>
@@ -16156,9 +16335,9 @@
     </row>
     <row r="96" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B96" s="93"/>
-      <c r="C96" s="131"/>
-      <c r="D96" s="131"/>
-      <c r="E96" s="131"/>
+      <c r="C96" s="152"/>
+      <c r="D96" s="152"/>
+      <c r="E96" s="152"/>
       <c r="F96" s="93"/>
       <c r="G96" s="93"/>
       <c r="H96" s="93"/>
@@ -16408,12 +16587,12 @@
     </row>
     <row r="110" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B110" s="98"/>
-      <c r="C110" s="131"/>
-      <c r="D110" s="131"/>
-      <c r="E110" s="131"/>
-      <c r="F110" s="131"/>
-      <c r="G110" s="131"/>
-      <c r="H110" s="131"/>
+      <c r="C110" s="152"/>
+      <c r="D110" s="152"/>
+      <c r="E110" s="152"/>
+      <c r="F110" s="152"/>
+      <c r="G110" s="152"/>
+      <c r="H110" s="152"/>
       <c r="I110" s="93"/>
       <c r="J110" s="93"/>
       <c r="K110" s="93"/>
@@ -16426,12 +16605,12 @@
     </row>
     <row r="111" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B111" s="93"/>
-      <c r="C111" s="131"/>
-      <c r="D111" s="131"/>
-      <c r="E111" s="131"/>
-      <c r="F111" s="131"/>
-      <c r="G111" s="131"/>
-      <c r="H111" s="131"/>
+      <c r="C111" s="152"/>
+      <c r="D111" s="152"/>
+      <c r="E111" s="152"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
       <c r="I111" s="93"/>
       <c r="J111" s="93"/>
       <c r="K111" s="93"/>
@@ -16444,12 +16623,12 @@
     </row>
     <row r="112" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B112" s="93"/>
-      <c r="C112" s="131"/>
-      <c r="D112" s="131"/>
-      <c r="E112" s="131"/>
-      <c r="F112" s="131"/>
-      <c r="G112" s="131"/>
-      <c r="H112" s="131"/>
+      <c r="C112" s="152"/>
+      <c r="D112" s="152"/>
+      <c r="E112" s="152"/>
+      <c r="F112" s="152"/>
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
       <c r="I112" s="93"/>
       <c r="J112" s="93"/>
       <c r="K112" s="93"/>
@@ -16642,12 +16821,12 @@
     </row>
     <row r="123" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B123" s="98"/>
-      <c r="C123" s="131"/>
-      <c r="D123" s="131"/>
-      <c r="E123" s="131"/>
-      <c r="F123" s="131"/>
-      <c r="G123" s="131"/>
-      <c r="H123" s="131"/>
+      <c r="C123" s="152"/>
+      <c r="D123" s="152"/>
+      <c r="E123" s="152"/>
+      <c r="F123" s="152"/>
+      <c r="G123" s="152"/>
+      <c r="H123" s="152"/>
       <c r="I123" s="93"/>
       <c r="J123" s="93"/>
       <c r="K123" s="93"/>
@@ -16660,12 +16839,12 @@
     </row>
     <row r="124" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B124" s="93"/>
-      <c r="C124" s="131"/>
-      <c r="D124" s="131"/>
-      <c r="E124" s="131"/>
-      <c r="F124" s="131"/>
-      <c r="G124" s="131"/>
-      <c r="H124" s="131"/>
+      <c r="C124" s="152"/>
+      <c r="D124" s="152"/>
+      <c r="E124" s="152"/>
+      <c r="F124" s="152"/>
+      <c r="G124" s="152"/>
+      <c r="H124" s="152"/>
       <c r="I124" s="93"/>
       <c r="J124" s="93"/>
       <c r="K124" s="93"/>
@@ -16678,12 +16857,12 @@
     </row>
     <row r="125" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B125" s="93"/>
-      <c r="C125" s="131"/>
-      <c r="D125" s="131"/>
-      <c r="E125" s="131"/>
-      <c r="F125" s="131"/>
-      <c r="G125" s="131"/>
-      <c r="H125" s="131"/>
+      <c r="C125" s="152"/>
+      <c r="D125" s="152"/>
+      <c r="E125" s="152"/>
+      <c r="F125" s="152"/>
+      <c r="G125" s="152"/>
+      <c r="H125" s="152"/>
       <c r="I125" s="93"/>
       <c r="J125" s="93"/>
       <c r="K125" s="93"/>
@@ -16732,12 +16911,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C83:E83"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="C81:E81"/>
-    <mergeCell ref="C82:E82"/>
     <mergeCell ref="C124:E124"/>
     <mergeCell ref="F124:H124"/>
     <mergeCell ref="C125:E125"/>
@@ -16753,6 +16926,12 @@
     <mergeCell ref="F111:H111"/>
     <mergeCell ref="C123:E123"/>
     <mergeCell ref="F123:H123"/>
+    <mergeCell ref="C83:E83"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C81:E81"/>
+    <mergeCell ref="C82:E82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17029,9 +17208,9 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="98"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
       <c r="F15" s="93"/>
       <c r="G15" s="93"/>
       <c r="H15" s="93"/>
@@ -17048,9 +17227,9 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="93"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
       <c r="F16" s="93"/>
       <c r="G16" s="93"/>
       <c r="H16" s="93"/>
@@ -17067,9 +17246,9 @@
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="93"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
       <c r="F17" s="93"/>
       <c r="G17" s="93"/>
       <c r="H17" s="93"/>
@@ -17104,8 +17283,8 @@
       <c r="R18" s="93"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="93"/>
       <c r="E19" s="93"/>
       <c r="F19" s="93"/>
@@ -17127,8 +17306,8 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="93"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="93"/>
       <c r="F20" s="93"/>
       <c r="G20" s="93"/>
@@ -17171,8 +17350,8 @@
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="93"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="134"/>
       <c r="E22" s="93"/>
       <c r="F22" s="93"/>
       <c r="G22" s="117"/>
@@ -17193,8 +17372,8 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="93"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="180"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="134"/>
       <c r="E23" s="93"/>
       <c r="F23" s="93"/>
       <c r="G23" s="117"/>
@@ -17215,14 +17394,14 @@
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="180"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="93"/>
-      <c r="F24" s="181"/>
+      <c r="F24" s="135"/>
       <c r="G24" s="93"/>
       <c r="H24" s="93"/>
       <c r="I24" s="93"/>
-      <c r="J24" s="180"/>
+      <c r="J24" s="134"/>
       <c r="K24" s="93"/>
       <c r="L24" s="93"/>
       <c r="M24" s="117"/>
@@ -17237,8 +17416,8 @@
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
-      <c r="C25" s="179"/>
-      <c r="D25" s="180"/>
+      <c r="C25" s="133"/>
+      <c r="D25" s="134"/>
       <c r="E25" s="93"/>
       <c r="F25" s="93"/>
       <c r="G25" s="117"/>
@@ -17259,14 +17438,14 @@
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="93"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="180"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="93"/>
-      <c r="F26" s="181"/>
+      <c r="F26" s="135"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
       <c r="I26" s="93"/>
-      <c r="J26" s="180"/>
+      <c r="J26" s="134"/>
       <c r="K26" s="93"/>
       <c r="L26" s="93"/>
       <c r="M26" s="117"/>
@@ -17302,7 +17481,7 @@
       <c r="U27" s="86"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="175"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="93"/>
       <c r="D28" s="93"/>
       <c r="E28" s="93"/>
@@ -17492,9 +17671,9 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="98"/>
-      <c r="C37" s="131"/>
-      <c r="D37" s="131"/>
-      <c r="E37" s="131"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
       <c r="F37" s="93"/>
       <c r="G37" s="93"/>
       <c r="H37" s="93"/>
@@ -17511,9 +17690,9 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="93"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="93"/>
@@ -17530,9 +17709,9 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="93"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="93"/>
@@ -17587,8 +17766,8 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B42" s="93"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="178"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="132"/>
       <c r="E42" s="93"/>
       <c r="F42" s="93"/>
       <c r="G42" s="93"/>
@@ -17625,8 +17804,8 @@
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B44" s="93"/>
-      <c r="C44" s="179"/>
-      <c r="D44" s="180"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="134"/>
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
       <c r="G44" s="117"/>
@@ -17644,8 +17823,8 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B45" s="93"/>
-      <c r="C45" s="179"/>
-      <c r="D45" s="180"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="134"/>
       <c r="E45" s="93"/>
       <c r="F45" s="93"/>
       <c r="G45" s="117"/>
@@ -17663,14 +17842,14 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B46" s="93"/>
-      <c r="C46" s="179"/>
-      <c r="D46" s="180"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="134"/>
       <c r="E46" s="93"/>
-      <c r="F46" s="181"/>
+      <c r="F46" s="135"/>
       <c r="G46" s="93"/>
       <c r="H46" s="93"/>
       <c r="I46" s="93"/>
-      <c r="J46" s="180"/>
+      <c r="J46" s="134"/>
       <c r="K46" s="93"/>
       <c r="L46" s="93"/>
       <c r="M46" s="117"/>
@@ -17682,8 +17861,8 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B47" s="93"/>
-      <c r="C47" s="179"/>
-      <c r="D47" s="180"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="134"/>
       <c r="E47" s="93"/>
       <c r="F47" s="93"/>
       <c r="G47" s="117"/>
@@ -17701,14 +17880,14 @@
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B48" s="93"/>
-      <c r="C48" s="179"/>
-      <c r="D48" s="180"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="134"/>
       <c r="E48" s="93"/>
-      <c r="F48" s="181"/>
+      <c r="F48" s="135"/>
       <c r="G48" s="93"/>
       <c r="H48" s="93"/>
       <c r="I48" s="93"/>
-      <c r="J48" s="180"/>
+      <c r="J48" s="134"/>
       <c r="K48" s="93"/>
       <c r="L48" s="93"/>
       <c r="M48" s="117"/>
@@ -17738,7 +17917,7 @@
       <c r="R49" s="93"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="175"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="93"/>
       <c r="D50" s="93"/>
       <c r="E50" s="93"/>
@@ -17910,9 +18089,9 @@
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="93"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -17929,9 +18108,9 @@
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="93"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -17948,9 +18127,9 @@
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" s="93"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
       <c r="F61" s="93"/>
       <c r="G61" s="93"/>
       <c r="H61" s="93"/>
@@ -18005,8 +18184,8 @@
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" s="93"/>
-      <c r="C64" s="177"/>
-      <c r="D64" s="178"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="132"/>
       <c r="E64" s="93"/>
       <c r="F64" s="93"/>
       <c r="G64" s="93"/>
@@ -18043,8 +18222,8 @@
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66" s="93"/>
-      <c r="C66" s="179"/>
-      <c r="D66" s="180"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="134"/>
       <c r="E66" s="93"/>
       <c r="F66" s="93"/>
       <c r="G66" s="117"/>
@@ -18062,8 +18241,8 @@
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67" s="93"/>
-      <c r="C67" s="179"/>
-      <c r="D67" s="180"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="134"/>
       <c r="E67" s="93"/>
       <c r="F67" s="93"/>
       <c r="G67" s="117"/>
@@ -18081,14 +18260,14 @@
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68" s="93"/>
-      <c r="C68" s="179"/>
-      <c r="D68" s="180"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="134"/>
       <c r="E68" s="93"/>
-      <c r="F68" s="181"/>
+      <c r="F68" s="135"/>
       <c r="G68" s="93"/>
       <c r="H68" s="93"/>
       <c r="I68" s="93"/>
-      <c r="J68" s="180"/>
+      <c r="J68" s="134"/>
       <c r="K68" s="93"/>
       <c r="L68" s="93"/>
       <c r="M68" s="117"/>
@@ -18100,8 +18279,8 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="93"/>
-      <c r="C69" s="179"/>
-      <c r="D69" s="180"/>
+      <c r="C69" s="133"/>
+      <c r="D69" s="134"/>
       <c r="E69" s="93"/>
       <c r="F69" s="93"/>
       <c r="G69" s="117"/>
@@ -18119,14 +18298,14 @@
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="93"/>
-      <c r="C70" s="179"/>
-      <c r="D70" s="180"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="134"/>
       <c r="E70" s="93"/>
-      <c r="F70" s="181"/>
+      <c r="F70" s="135"/>
       <c r="G70" s="93"/>
       <c r="H70" s="93"/>
       <c r="I70" s="93"/>
-      <c r="J70" s="180"/>
+      <c r="J70" s="134"/>
       <c r="K70" s="93"/>
       <c r="L70" s="93"/>
       <c r="M70" s="117"/>
@@ -18156,7 +18335,7 @@
       <c r="R71" s="93"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B72" s="175"/>
+      <c r="B72" s="129"/>
       <c r="C72" s="93"/>
       <c r="D72" s="93"/>
       <c r="E72" s="93"/>
@@ -18175,7 +18354,7 @@
       <c r="R72" s="93"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B73" s="175"/>
+      <c r="B73" s="129"/>
       <c r="C73" s="93"/>
       <c r="D73" s="120"/>
       <c r="E73" s="93"/>
@@ -18194,7 +18373,7 @@
       <c r="R73" s="93"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B74" s="175"/>
+      <c r="B74" s="129"/>
       <c r="C74" s="93"/>
       <c r="D74" s="120"/>
       <c r="E74" s="102"/>
@@ -18329,12 +18508,12 @@
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" s="93"/>
       <c r="C81" s="98"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
+      <c r="D81" s="152"/>
+      <c r="E81" s="152"/>
+      <c r="F81" s="152"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="152"/>
+      <c r="I81" s="152"/>
       <c r="J81" s="117"/>
       <c r="K81" s="93"/>
       <c r="L81" s="93"/>
@@ -18348,12 +18527,12 @@
     <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82" s="93"/>
       <c r="C82" s="93"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="152"/>
+      <c r="F82" s="152"/>
+      <c r="G82" s="152"/>
+      <c r="H82" s="152"/>
+      <c r="I82" s="152"/>
       <c r="J82" s="93"/>
       <c r="K82" s="93"/>
       <c r="L82" s="93"/>
@@ -18367,12 +18546,12 @@
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83" s="93"/>
       <c r="C83" s="93"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
+      <c r="D83" s="152"/>
+      <c r="E83" s="152"/>
+      <c r="F83" s="152"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="152"/>
+      <c r="I83" s="152"/>
       <c r="J83" s="93"/>
       <c r="K83" s="93"/>
       <c r="L83" s="93"/>
@@ -18403,7 +18582,7 @@
       <c r="R84" s="93"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="175"/>
+      <c r="B85" s="129"/>
       <c r="C85" s="93"/>
       <c r="D85" s="93"/>
       <c r="E85" s="93"/>
@@ -18423,8 +18602,8 @@
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86" s="93"/>
-      <c r="C86" s="177"/>
-      <c r="D86" s="178"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="132"/>
       <c r="E86" s="93"/>
       <c r="F86" s="93"/>
       <c r="G86" s="93"/>
@@ -18461,8 +18640,8 @@
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88" s="93"/>
-      <c r="C88" s="179"/>
-      <c r="D88" s="180"/>
+      <c r="C88" s="133"/>
+      <c r="D88" s="134"/>
       <c r="E88" s="93"/>
       <c r="F88" s="93"/>
       <c r="G88" s="93"/>
@@ -18483,11 +18662,11 @@
       <c r="C89" s="93"/>
       <c r="D89" s="93"/>
       <c r="E89" s="93"/>
-      <c r="F89" s="181"/>
+      <c r="F89" s="135"/>
       <c r="G89" s="93"/>
       <c r="H89" s="93"/>
       <c r="I89" s="93"/>
-      <c r="J89" s="180"/>
+      <c r="J89" s="134"/>
       <c r="K89" s="93"/>
       <c r="L89" s="93"/>
       <c r="M89" s="93"/>
@@ -18518,8 +18697,8 @@
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" s="93"/>
-      <c r="C91" s="179"/>
-      <c r="D91" s="180"/>
+      <c r="C91" s="133"/>
+      <c r="D91" s="134"/>
       <c r="E91" s="93"/>
       <c r="F91" s="93"/>
       <c r="G91" s="93"/>
@@ -18540,11 +18719,11 @@
       <c r="C92" s="93"/>
       <c r="D92" s="93"/>
       <c r="E92" s="93"/>
-      <c r="F92" s="181"/>
+      <c r="F92" s="135"/>
       <c r="G92" s="93"/>
       <c r="H92" s="93"/>
       <c r="I92" s="93"/>
-      <c r="J92" s="180"/>
+      <c r="J92" s="134"/>
       <c r="K92" s="93"/>
       <c r="L92" s="93"/>
       <c r="M92" s="93"/>
@@ -18575,8 +18754,8 @@
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B94" s="93"/>
-      <c r="C94" s="179"/>
-      <c r="D94" s="180"/>
+      <c r="C94" s="133"/>
+      <c r="D94" s="134"/>
       <c r="E94" s="93"/>
       <c r="F94" s="93"/>
       <c r="G94" s="93"/>
@@ -18597,11 +18776,11 @@
       <c r="C95" s="93"/>
       <c r="D95" s="93"/>
       <c r="E95" s="93"/>
-      <c r="F95" s="181"/>
+      <c r="F95" s="135"/>
       <c r="G95" s="93"/>
       <c r="H95" s="93"/>
       <c r="I95" s="93"/>
-      <c r="J95" s="180"/>
+      <c r="J95" s="134"/>
       <c r="K95" s="93"/>
       <c r="L95" s="93"/>
       <c r="M95" s="93"/>
@@ -18632,8 +18811,8 @@
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97" s="93"/>
-      <c r="C97" s="179"/>
-      <c r="D97" s="180"/>
+      <c r="C97" s="133"/>
+      <c r="D97" s="134"/>
       <c r="E97" s="93"/>
       <c r="F97" s="93"/>
       <c r="G97" s="93"/>
@@ -18654,7 +18833,7 @@
       <c r="C98" s="93"/>
       <c r="D98" s="93"/>
       <c r="E98" s="93"/>
-      <c r="F98" s="181"/>
+      <c r="F98" s="135"/>
       <c r="G98" s="93"/>
       <c r="H98" s="93"/>
       <c r="I98" s="93"/>
@@ -18673,7 +18852,7 @@
       <c r="C99" s="93"/>
       <c r="D99" s="93"/>
       <c r="E99" s="93"/>
-      <c r="F99" s="180"/>
+      <c r="F99" s="134"/>
       <c r="G99" s="93"/>
       <c r="H99" s="93"/>
       <c r="I99" s="93"/>
@@ -18692,7 +18871,7 @@
       <c r="C100" s="93"/>
       <c r="D100" s="93"/>
       <c r="E100" s="93"/>
-      <c r="F100" s="181"/>
+      <c r="F100" s="135"/>
       <c r="G100" s="93"/>
       <c r="H100" s="93"/>
       <c r="I100" s="93"/>
@@ -18711,7 +18890,7 @@
       <c r="C101" s="93"/>
       <c r="D101" s="93"/>
       <c r="E101" s="93"/>
-      <c r="F101" s="180"/>
+      <c r="F101" s="134"/>
       <c r="G101" s="93"/>
       <c r="H101" s="93"/>
       <c r="I101" s="93"/>
@@ -18764,7 +18943,7 @@
       <c r="R103" s="93"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="175"/>
+      <c r="B104" s="129"/>
       <c r="C104" s="93"/>
       <c r="D104" s="93"/>
       <c r="E104" s="93"/>
@@ -18783,7 +18962,7 @@
       <c r="R104" s="93"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B105" s="175"/>
+      <c r="B105" s="129"/>
       <c r="C105" s="93"/>
       <c r="D105" s="120"/>
       <c r="E105" s="93"/>
@@ -18802,7 +18981,7 @@
       <c r="R105" s="93"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="175"/>
+      <c r="B106" s="129"/>
       <c r="C106" s="93"/>
       <c r="D106" s="93"/>
       <c r="E106" s="102"/>
@@ -18937,12 +19116,12 @@
     <row r="113" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B113" s="93"/>
       <c r="C113" s="98"/>
-      <c r="D113" s="131"/>
-      <c r="E113" s="131"/>
-      <c r="F113" s="131"/>
-      <c r="G113" s="131"/>
-      <c r="H113" s="131"/>
-      <c r="I113" s="131"/>
+      <c r="D113" s="152"/>
+      <c r="E113" s="152"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="152"/>
       <c r="J113" s="93"/>
       <c r="K113" s="93"/>
       <c r="L113" s="93"/>
@@ -18956,12 +19135,12 @@
     <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114" s="93"/>
       <c r="C114" s="93"/>
-      <c r="D114" s="131"/>
-      <c r="E114" s="131"/>
-      <c r="F114" s="131"/>
-      <c r="G114" s="131"/>
-      <c r="H114" s="131"/>
-      <c r="I114" s="131"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
       <c r="J114" s="93"/>
       <c r="K114" s="93"/>
       <c r="L114" s="93"/>
@@ -18975,12 +19154,12 @@
     <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115" s="93"/>
       <c r="C115" s="93"/>
-      <c r="D115" s="131"/>
-      <c r="E115" s="131"/>
-      <c r="F115" s="131"/>
-      <c r="G115" s="131"/>
-      <c r="H115" s="131"/>
-      <c r="I115" s="131"/>
+      <c r="D115" s="152"/>
+      <c r="E115" s="152"/>
+      <c r="F115" s="152"/>
+      <c r="G115" s="152"/>
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
       <c r="J115" s="93"/>
       <c r="K115" s="93"/>
       <c r="L115" s="93"/>
@@ -19011,7 +19190,7 @@
       <c r="R116" s="93"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="175"/>
+      <c r="B117" s="129"/>
       <c r="C117" s="93"/>
       <c r="D117" s="93"/>
       <c r="E117" s="93"/>
@@ -19031,8 +19210,8 @@
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118" s="93"/>
-      <c r="C118" s="177"/>
-      <c r="D118" s="178"/>
+      <c r="C118" s="131"/>
+      <c r="D118" s="132"/>
       <c r="E118" s="93"/>
       <c r="F118" s="93"/>
       <c r="G118" s="93"/>
@@ -19069,8 +19248,8 @@
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120" s="93"/>
-      <c r="C120" s="179"/>
-      <c r="D120" s="180"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="134"/>
       <c r="E120" s="93"/>
       <c r="F120" s="93"/>
       <c r="G120" s="93"/>
@@ -19091,11 +19270,11 @@
       <c r="C121" s="93"/>
       <c r="D121" s="93"/>
       <c r="E121" s="93"/>
-      <c r="F121" s="181"/>
+      <c r="F121" s="135"/>
       <c r="G121" s="93"/>
       <c r="H121" s="93"/>
       <c r="I121" s="93"/>
-      <c r="J121" s="180"/>
+      <c r="J121" s="134"/>
       <c r="K121" s="93"/>
       <c r="L121" s="93"/>
       <c r="M121" s="93"/>
@@ -19126,8 +19305,8 @@
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123" s="93"/>
-      <c r="C123" s="179"/>
-      <c r="D123" s="180"/>
+      <c r="C123" s="133"/>
+      <c r="D123" s="134"/>
       <c r="E123" s="93"/>
       <c r="F123" s="93"/>
       <c r="G123" s="93"/>
@@ -19148,11 +19327,11 @@
       <c r="C124" s="93"/>
       <c r="D124" s="93"/>
       <c r="E124" s="93"/>
-      <c r="F124" s="181"/>
+      <c r="F124" s="135"/>
       <c r="G124" s="93"/>
       <c r="H124" s="93"/>
       <c r="I124" s="93"/>
-      <c r="J124" s="180"/>
+      <c r="J124" s="134"/>
       <c r="K124" s="93"/>
       <c r="L124" s="93"/>
       <c r="M124" s="93"/>
@@ -19183,8 +19362,8 @@
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126" s="93"/>
-      <c r="C126" s="179"/>
-      <c r="D126" s="180"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="134"/>
       <c r="E126" s="93"/>
       <c r="F126" s="93"/>
       <c r="G126" s="93"/>
@@ -19205,11 +19384,11 @@
       <c r="C127" s="93"/>
       <c r="D127" s="93"/>
       <c r="E127" s="93"/>
-      <c r="F127" s="181"/>
+      <c r="F127" s="135"/>
       <c r="G127" s="93"/>
       <c r="H127" s="93"/>
       <c r="I127" s="93"/>
-      <c r="J127" s="180"/>
+      <c r="J127" s="134"/>
       <c r="K127" s="93"/>
       <c r="L127" s="93"/>
       <c r="M127" s="93"/>
@@ -19240,8 +19419,8 @@
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129" s="93"/>
-      <c r="C129" s="179"/>
-      <c r="D129" s="180"/>
+      <c r="C129" s="133"/>
+      <c r="D129" s="134"/>
       <c r="E129" s="93"/>
       <c r="F129" s="93"/>
       <c r="G129" s="93"/>
@@ -19262,7 +19441,7 @@
       <c r="C130" s="93"/>
       <c r="D130" s="93"/>
       <c r="E130" s="93"/>
-      <c r="F130" s="181"/>
+      <c r="F130" s="135"/>
       <c r="G130" s="93"/>
       <c r="H130" s="93"/>
       <c r="I130" s="93"/>
@@ -19281,7 +19460,7 @@
       <c r="C131" s="93"/>
       <c r="D131" s="93"/>
       <c r="E131" s="93"/>
-      <c r="F131" s="180"/>
+      <c r="F131" s="134"/>
       <c r="G131" s="93"/>
       <c r="H131" s="93"/>
       <c r="I131" s="93"/>
@@ -19300,7 +19479,7 @@
       <c r="C132" s="93"/>
       <c r="D132" s="93"/>
       <c r="E132" s="93"/>
-      <c r="F132" s="181"/>
+      <c r="F132" s="135"/>
       <c r="G132" s="93"/>
       <c r="H132" s="93"/>
       <c r="I132" s="93"/>
@@ -19319,7 +19498,7 @@
       <c r="C133" s="93"/>
       <c r="D133" s="93"/>
       <c r="E133" s="93"/>
-      <c r="F133" s="180"/>
+      <c r="F133" s="134"/>
       <c r="G133" s="93"/>
       <c r="H133" s="93"/>
       <c r="I133" s="93"/>
@@ -19772,6 +19951,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:I83"/>
     <mergeCell ref="C60:E60"/>
     <mergeCell ref="C61:E61"/>
     <mergeCell ref="C16:E16"/>
@@ -19781,18 +19972,6 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="G115:I115"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20636,10 +20815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="B17:E23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20716,28 +20895,431 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="184" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="184" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E19" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="184" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="185">
+        <v>1</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="185">
+        <v>2</v>
+      </c>
+      <c r="D26" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="G26" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="185">
+        <v>3</v>
+      </c>
+      <c r="D27" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="G27" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="184" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="E31" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F31" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="185">
+        <v>6</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="185">
+        <v>50</v>
+      </c>
+      <c r="I33" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="185">
+        <v>7</v>
+      </c>
+      <c r="D34" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="H34" s="185">
+        <v>20</v>
+      </c>
+      <c r="I34" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="185">
+        <v>8</v>
+      </c>
+      <c r="D35" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="185">
+        <v>30</v>
+      </c>
+      <c r="I35" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="184" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C38" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G38" s="184" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="184" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G39" s="184" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -20746,6 +21328,7 @@
     <mergeCell ref="H6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20835,7 +21418,7 @@
       </c>
     </row>
     <row r="3" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="182"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="116"/>
       <c r="D3" s="116"/>
       <c r="E3" s="116"/>
@@ -20868,7 +21451,7 @@
       <c r="AG3" s="115"/>
     </row>
     <row r="4" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="183"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="116"/>
       <c r="D4" s="116"/>
       <c r="E4" s="116"/>
@@ -20902,7 +21485,7 @@
       <c r="AH4" s="93"/>
     </row>
     <row r="5" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="183"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="116"/>
       <c r="D5" s="116"/>
       <c r="E5" s="116"/>
@@ -20936,7 +21519,7 @@
       <c r="AH5" s="93"/>
     </row>
     <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="183"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="116"/>
       <c r="D6" s="116"/>
       <c r="E6" s="116"/>
@@ -20970,7 +21553,7 @@
       <c r="AH6" s="93"/>
     </row>
     <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="183"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="116"/>
       <c r="D7" s="116"/>
       <c r="E7" s="116"/>
@@ -21004,7 +21587,7 @@
       <c r="AH7" s="93"/>
     </row>
     <row r="8" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="183"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
       <c r="E8" s="116"/>
@@ -21072,7 +21655,7 @@
       <c r="AH9" s="93"/>
     </row>
     <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="182"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="116"/>
       <c r="D10" s="116"/>
       <c r="E10" s="116"/>
@@ -21106,7 +21689,7 @@
       <c r="AH10" s="93"/>
     </row>
     <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="183"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="116"/>
       <c r="D11" s="116"/>
       <c r="E11" s="116"/>
@@ -21140,7 +21723,7 @@
       <c r="AH11" s="93"/>
     </row>
     <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="183"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="116"/>
       <c r="D12" s="116"/>
       <c r="E12" s="116"/>
@@ -21156,9 +21739,9 @@
       <c r="O12" s="116"/>
       <c r="P12" s="116"/>
       <c r="R12" s="98"/>
-      <c r="S12" s="131"/>
-      <c r="T12" s="131"/>
-      <c r="U12" s="131"/>
+      <c r="S12" s="152"/>
+      <c r="T12" s="152"/>
+      <c r="U12" s="152"/>
       <c r="V12" s="93"/>
       <c r="W12" s="93"/>
       <c r="X12" s="93"/>
@@ -21174,7 +21757,7 @@
       <c r="AH12" s="93"/>
     </row>
     <row r="13" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="183"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
@@ -21190,9 +21773,9 @@
       <c r="O13" s="116"/>
       <c r="P13" s="116"/>
       <c r="R13" s="93"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
+      <c r="S13" s="152"/>
+      <c r="T13" s="152"/>
+      <c r="U13" s="152"/>
       <c r="V13" s="93"/>
       <c r="W13" s="93"/>
       <c r="X13" s="93"/>
@@ -21208,7 +21791,7 @@
       <c r="AH13" s="93"/>
     </row>
     <row r="14" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="183"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="116"/>
       <c r="D14" s="116"/>
       <c r="E14" s="116"/>
@@ -21224,9 +21807,9 @@
       <c r="O14" s="116"/>
       <c r="P14" s="116"/>
       <c r="R14" s="93"/>
-      <c r="S14" s="131"/>
-      <c r="T14" s="131"/>
-      <c r="U14" s="131"/>
+      <c r="S14" s="152"/>
+      <c r="T14" s="152"/>
+      <c r="U14" s="152"/>
       <c r="V14" s="93"/>
       <c r="W14" s="93"/>
       <c r="X14" s="93"/>
@@ -21242,7 +21825,7 @@
       <c r="AH14" s="93"/>
     </row>
     <row r="15" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="183"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="116"/>
@@ -21310,7 +21893,7 @@
       <c r="AH16" s="93"/>
     </row>
     <row r="17" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="182"/>
+      <c r="B17" s="136"/>
       <c r="C17" s="116"/>
       <c r="D17" s="116"/>
       <c r="E17" s="116"/>
@@ -21344,7 +21927,7 @@
       <c r="AH17" s="93"/>
     </row>
     <row r="18" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="183"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="116"/>
       <c r="D18" s="116"/>
       <c r="E18" s="116"/>
@@ -21378,7 +21961,7 @@
       <c r="AH18" s="93"/>
     </row>
     <row r="19" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="183"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
       <c r="E19" s="116"/>
@@ -21412,7 +21995,7 @@
       <c r="AH19" s="93"/>
     </row>
     <row r="20" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="183"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="116"/>
       <c r="D20" s="116"/>
       <c r="E20" s="116"/>
@@ -21446,7 +22029,7 @@
       <c r="AH20" s="93"/>
     </row>
     <row r="21" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="183"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="116"/>
       <c r="D21" s="116"/>
       <c r="E21" s="116"/>
@@ -21480,7 +22063,7 @@
       <c r="AH21" s="93"/>
     </row>
     <row r="22" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="183"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="116"/>
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
@@ -21548,7 +22131,7 @@
       <c r="AH23" s="93"/>
     </row>
     <row r="24" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="183"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="116"/>
       <c r="D24" s="116"/>
       <c r="E24" s="116"/>
@@ -21582,7 +22165,7 @@
       <c r="AH24" s="93"/>
     </row>
     <row r="25" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="183"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
       <c r="E25" s="116"/>
@@ -21598,9 +22181,9 @@
       <c r="O25" s="116"/>
       <c r="P25" s="116"/>
       <c r="R25" s="98"/>
-      <c r="S25" s="131"/>
-      <c r="T25" s="131"/>
-      <c r="U25" s="131"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
       <c r="V25" s="93"/>
       <c r="W25" s="93"/>
       <c r="X25" s="93"/>
@@ -21616,7 +22199,7 @@
       <c r="AH25" s="93"/>
     </row>
     <row r="26" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="183"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
       <c r="E26" s="116"/>
@@ -21632,9 +22215,9 @@
       <c r="O26" s="116"/>
       <c r="P26" s="116"/>
       <c r="R26" s="93"/>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="152"/>
       <c r="V26" s="93"/>
       <c r="W26" s="93"/>
       <c r="X26" s="93"/>
@@ -21650,7 +22233,7 @@
       <c r="AH26" s="93"/>
     </row>
     <row r="27" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="183"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="116"/>
       <c r="D27" s="116"/>
       <c r="E27" s="116"/>
@@ -21666,9 +22249,9 @@
       <c r="O27" s="116"/>
       <c r="P27" s="116"/>
       <c r="R27" s="93"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="152"/>
       <c r="V27" s="93"/>
       <c r="W27" s="93"/>
       <c r="X27" s="93"/>
@@ -21684,7 +22267,7 @@
       <c r="AH27" s="93"/>
     </row>
     <row r="28" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="183"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="116"/>
       <c r="D28" s="116"/>
       <c r="E28" s="116"/>
@@ -21718,7 +22301,7 @@
       <c r="AH28" s="93"/>
     </row>
     <row r="29" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="183"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="116"/>
       <c r="D29" s="116"/>
       <c r="E29" s="116"/>
@@ -21752,7 +22335,7 @@
       <c r="AH29" s="93"/>
     </row>
     <row r="30" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="183"/>
+      <c r="B30" s="137"/>
       <c r="C30" s="116"/>
       <c r="D30" s="116"/>
       <c r="E30" s="116"/>
@@ -21820,7 +22403,7 @@
       <c r="AH31" s="93"/>
     </row>
     <row r="32" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="183"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="116"/>
       <c r="D32" s="116"/>
       <c r="E32" s="116"/>
@@ -21854,7 +22437,7 @@
       <c r="AH32" s="93"/>
     </row>
     <row r="33" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="183"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="116"/>
       <c r="D33" s="116"/>
       <c r="E33" s="116"/>
@@ -21888,7 +22471,7 @@
       <c r="AH33" s="93"/>
     </row>
     <row r="34" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="183"/>
+      <c r="B34" s="137"/>
       <c r="C34" s="116"/>
       <c r="D34" s="116"/>
       <c r="E34" s="116"/>
@@ -21922,7 +22505,7 @@
       <c r="AH34" s="93"/>
     </row>
     <row r="35" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="183"/>
+      <c r="B35" s="137"/>
       <c r="C35" s="116"/>
       <c r="D35" s="116"/>
       <c r="E35" s="116"/>
@@ -21956,7 +22539,7 @@
       <c r="AH35" s="93"/>
     </row>
     <row r="36" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="183"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="116"/>
       <c r="D36" s="116"/>
       <c r="E36" s="116"/>
@@ -21990,7 +22573,7 @@
       <c r="AH36" s="93"/>
     </row>
     <row r="37" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="183"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="116"/>
       <c r="D37" s="116"/>
       <c r="E37" s="116"/>
@@ -22024,7 +22607,7 @@
       <c r="AH37" s="93"/>
     </row>
     <row r="38" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="183"/>
+      <c r="B38" s="137"/>
       <c r="C38" s="116"/>
       <c r="D38" s="116"/>
       <c r="E38" s="116"/>
@@ -22040,9 +22623,9 @@
       <c r="O38" s="116"/>
       <c r="P38" s="116"/>
       <c r="R38" s="93"/>
-      <c r="S38" s="131"/>
-      <c r="T38" s="131"/>
-      <c r="U38" s="131"/>
+      <c r="S38" s="152"/>
+      <c r="T38" s="152"/>
+      <c r="U38" s="152"/>
       <c r="V38" s="93"/>
       <c r="W38" s="93"/>
       <c r="X38" s="93"/>
@@ -22059,9 +22642,9 @@
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="R39" s="93"/>
-      <c r="S39" s="131"/>
-      <c r="T39" s="131"/>
-      <c r="U39" s="131"/>
+      <c r="S39" s="152"/>
+      <c r="T39" s="152"/>
+      <c r="U39" s="152"/>
       <c r="V39" s="93"/>
       <c r="W39" s="93"/>
       <c r="X39" s="93"/>
@@ -22078,9 +22661,9 @@
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="R40" s="93"/>
-      <c r="S40" s="131"/>
-      <c r="T40" s="131"/>
-      <c r="U40" s="131"/>
+      <c r="S40" s="152"/>
+      <c r="T40" s="152"/>
+      <c r="U40" s="152"/>
       <c r="V40" s="93"/>
       <c r="W40" s="93"/>
       <c r="X40" s="93"/>
@@ -22344,12 +22927,12 @@
     </row>
     <row r="54" spans="18:34" x14ac:dyDescent="0.25">
       <c r="R54" s="98"/>
-      <c r="S54" s="131"/>
-      <c r="T54" s="131"/>
-      <c r="U54" s="131"/>
-      <c r="V54" s="131"/>
-      <c r="W54" s="131"/>
-      <c r="X54" s="131"/>
+      <c r="S54" s="152"/>
+      <c r="T54" s="152"/>
+      <c r="U54" s="152"/>
+      <c r="V54" s="152"/>
+      <c r="W54" s="152"/>
+      <c r="X54" s="152"/>
       <c r="Y54" s="93"/>
       <c r="Z54" s="93"/>
       <c r="AA54" s="93"/>
@@ -22363,12 +22946,12 @@
     </row>
     <row r="55" spans="18:34" x14ac:dyDescent="0.25">
       <c r="R55" s="93"/>
-      <c r="S55" s="131"/>
-      <c r="T55" s="131"/>
-      <c r="U55" s="131"/>
-      <c r="V55" s="131"/>
-      <c r="W55" s="131"/>
-      <c r="X55" s="131"/>
+      <c r="S55" s="152"/>
+      <c r="T55" s="152"/>
+      <c r="U55" s="152"/>
+      <c r="V55" s="152"/>
+      <c r="W55" s="152"/>
+      <c r="X55" s="152"/>
       <c r="Y55" s="93"/>
       <c r="Z55" s="93"/>
       <c r="AA55" s="93"/>
@@ -22382,12 +22965,12 @@
     </row>
     <row r="56" spans="18:34" x14ac:dyDescent="0.25">
       <c r="R56" s="93"/>
-      <c r="S56" s="131"/>
-      <c r="T56" s="131"/>
-      <c r="U56" s="131"/>
-      <c r="V56" s="131"/>
-      <c r="W56" s="131"/>
-      <c r="X56" s="131"/>
+      <c r="S56" s="152"/>
+      <c r="T56" s="152"/>
+      <c r="U56" s="152"/>
+      <c r="V56" s="152"/>
+      <c r="W56" s="152"/>
+      <c r="X56" s="152"/>
       <c r="Y56" s="93"/>
       <c r="Z56" s="93"/>
       <c r="AA56" s="93"/>
@@ -22591,12 +23174,12 @@
     </row>
     <row r="67" spans="18:34" x14ac:dyDescent="0.25">
       <c r="R67" s="98"/>
-      <c r="S67" s="131"/>
-      <c r="T67" s="131"/>
-      <c r="U67" s="131"/>
-      <c r="V67" s="131"/>
-      <c r="W67" s="131"/>
-      <c r="X67" s="131"/>
+      <c r="S67" s="152"/>
+      <c r="T67" s="152"/>
+      <c r="U67" s="152"/>
+      <c r="V67" s="152"/>
+      <c r="W67" s="152"/>
+      <c r="X67" s="152"/>
       <c r="Y67" s="93"/>
       <c r="Z67" s="93"/>
       <c r="AA67" s="93"/>
@@ -22610,12 +23193,12 @@
     </row>
     <row r="68" spans="18:34" x14ac:dyDescent="0.25">
       <c r="R68" s="93"/>
-      <c r="S68" s="131"/>
-      <c r="T68" s="131"/>
-      <c r="U68" s="131"/>
-      <c r="V68" s="131"/>
-      <c r="W68" s="131"/>
-      <c r="X68" s="131"/>
+      <c r="S68" s="152"/>
+      <c r="T68" s="152"/>
+      <c r="U68" s="152"/>
+      <c r="V68" s="152"/>
+      <c r="W68" s="152"/>
+      <c r="X68" s="152"/>
       <c r="Y68" s="93"/>
       <c r="Z68" s="93"/>
       <c r="AA68" s="93"/>
@@ -22629,12 +23212,12 @@
     </row>
     <row r="69" spans="18:34" x14ac:dyDescent="0.25">
       <c r="R69" s="93"/>
-      <c r="S69" s="131"/>
-      <c r="T69" s="131"/>
-      <c r="U69" s="131"/>
-      <c r="V69" s="131"/>
-      <c r="W69" s="131"/>
-      <c r="X69" s="131"/>
+      <c r="S69" s="152"/>
+      <c r="T69" s="152"/>
+      <c r="U69" s="152"/>
+      <c r="V69" s="152"/>
+      <c r="W69" s="152"/>
+      <c r="X69" s="152"/>
       <c r="Y69" s="93"/>
       <c r="Z69" s="93"/>
       <c r="AA69" s="93"/>
@@ -22667,12 +23250,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="V69:X69"/>
     <mergeCell ref="S56:U56"/>
     <mergeCell ref="V56:X56"/>
     <mergeCell ref="S12:U12"/>
@@ -22688,6 +23265,12 @@
     <mergeCell ref="V54:X54"/>
     <mergeCell ref="S55:U55"/>
     <mergeCell ref="V55:X55"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="V69:X69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23068,9 +23651,9 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="98"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
       <c r="F23" s="93"/>
       <c r="G23" s="93"/>
       <c r="H23" s="93"/>
@@ -23085,9 +23668,9 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="93"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
       <c r="F24" s="93"/>
       <c r="G24" s="93"/>
       <c r="H24" s="93"/>
@@ -23102,9 +23685,9 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="93"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
       <c r="F25" s="93"/>
       <c r="G25" s="93"/>
       <c r="H25" s="93"/>
@@ -23493,9 +24076,9 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="98"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
       <c r="H48" s="93"/>
@@ -23510,9 +24093,9 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="93"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
       <c r="H49" s="93"/>
@@ -23527,9 +24110,9 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="93"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
       <c r="H50" s="93"/>
@@ -23969,9 +24552,9 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" s="93"/>
-      <c r="C76" s="131"/>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
+      <c r="C76" s="152"/>
+      <c r="D76" s="152"/>
+      <c r="E76" s="152"/>
       <c r="F76" s="93"/>
       <c r="G76" s="93"/>
       <c r="H76" s="93"/>
@@ -23986,9 +24569,9 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" s="93"/>
-      <c r="C77" s="131"/>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
+      <c r="C77" s="152"/>
+      <c r="D77" s="152"/>
+      <c r="E77" s="152"/>
       <c r="F77" s="93"/>
       <c r="G77" s="93"/>
       <c r="H77" s="93"/>
@@ -24003,9 +24586,9 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" s="93"/>
-      <c r="C78" s="131"/>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
+      <c r="C78" s="152"/>
+      <c r="D78" s="152"/>
+      <c r="E78" s="152"/>
       <c r="F78" s="93"/>
       <c r="G78" s="93"/>
       <c r="H78" s="93"/>
@@ -24158,7 +24741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD99886-033D-4C2A-B732-1533D15336A3}">
   <dimension ref="B1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -24195,9 +24778,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:I64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -24260,49 +24845,733 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="125" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="184"/>
+      <c r="C18" s="184" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="184"/>
+      <c r="C19" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="184"/>
+      <c r="C22" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="184"/>
+      <c r="C23" s="184" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="185">
+        <v>1</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="184"/>
+      <c r="C26" s="185">
+        <v>2</v>
+      </c>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="184"/>
+      <c r="C27" s="185">
+        <v>3</v>
+      </c>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="184" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="184" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="184"/>
+      <c r="C30" s="184" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="184"/>
+      <c r="C31" s="184" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="185">
+        <v>6</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="185">
+        <v>50</v>
+      </c>
+      <c r="I33" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="184"/>
+      <c r="C34" s="185">
+        <v>7</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="185">
+        <v>20</v>
+      </c>
+      <c r="I34" s="184"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="184"/>
+      <c r="C35" s="185">
+        <v>8</v>
+      </c>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="185">
+        <v>30</v>
+      </c>
+      <c r="I35" s="184"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="184" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="184"/>
+      <c r="C38" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="184" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="184"/>
+      <c r="C39" s="184" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="184"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="184" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="C42" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E42" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F42" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="184"/>
+      <c r="C43" s="186" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" s="184"/>
+      <c r="H43" s="184"/>
+      <c r="I43" s="184"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="184"/>
+      <c r="C44" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="184"/>
+      <c r="E44" s="184"/>
+      <c r="F44" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="G44" s="184"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="184"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="184"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C46" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="D46" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="E46" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="F46" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="G46" s="184"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="184"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="184"/>
+      <c r="C47" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="184"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="184"/>
+      <c r="C48" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" s="184"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" s="184"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="184"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="184"/>
+      <c r="I49" s="184"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="187">
+        <v>1</v>
+      </c>
+      <c r="D50" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="E50" s="184"/>
+      <c r="F50" s="184" t="s">
+        <v>245</v>
+      </c>
+      <c r="G50" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="H50" s="184"/>
+      <c r="I50" s="184"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="184"/>
+      <c r="C51" s="187">
+        <v>2</v>
+      </c>
+      <c r="D51" s="184"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" s="184"/>
+      <c r="I51" s="184"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="184"/>
+      <c r="C52" s="187">
+        <v>3</v>
+      </c>
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
+      <c r="F52" s="184"/>
+      <c r="G52" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="H52" s="184"/>
+      <c r="I52" s="184"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="184"/>
+      <c r="C53" s="184"/>
+      <c r="D53" s="184"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="184"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="D54" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="184" t="s">
+        <v>234</v>
+      </c>
+      <c r="F54" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="H54" s="184"/>
+      <c r="I54" s="184"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="184"/>
+      <c r="C55" s="186" t="s">
+        <v>255</v>
+      </c>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
+      <c r="I55" s="184"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="184"/>
+      <c r="C56" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="184"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="184"/>
+      <c r="C57" s="184"/>
+      <c r="D57" s="184"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="184"/>
+      <c r="G57" s="184"/>
+      <c r="H57" s="184"/>
+      <c r="I57" s="184"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="184" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="187">
+        <v>6</v>
+      </c>
+      <c r="D58" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="184" t="s">
+        <v>258</v>
+      </c>
+      <c r="H58" s="187">
+        <v>50</v>
+      </c>
+      <c r="I58" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="184"/>
+      <c r="C59" s="187">
+        <v>7</v>
+      </c>
+      <c r="D59" s="184"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="184"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="187">
+        <v>20</v>
+      </c>
+      <c r="I59" s="184"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="184"/>
+      <c r="C60" s="187">
+        <v>8</v>
+      </c>
+      <c r="D60" s="184"/>
+      <c r="E60" s="184"/>
+      <c r="F60" s="184"/>
+      <c r="G60" s="184"/>
+      <c r="H60" s="187">
+        <v>30</v>
+      </c>
+      <c r="I60" s="184"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="115"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="C62" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="115"/>
+      <c r="F62" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="115"/>
+      <c r="I62" s="115"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="184"/>
+      <c r="C63" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="D63" s="184"/>
+      <c r="E63" s="115"/>
+      <c r="F63" s="115"/>
+      <c r="G63" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="H63" s="115"/>
+      <c r="I63" s="115"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="184"/>
+      <c r="C64" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="184"/>
+      <c r="E64" s="115"/>
+      <c r="F64" s="115"/>
+      <c r="G64" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="115"/>
+      <c r="I64" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -24317,10 +25586,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24384,49 +25653,391 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="125" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="D17" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="184"/>
+      <c r="C18" s="186" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="184"/>
+      <c r="C19" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="F21" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="184"/>
+      <c r="C22" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="184"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="184"/>
+      <c r="C23" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="184"/>
+      <c r="C24" s="184"/>
+      <c r="D24" s="184"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="187">
+        <v>1</v>
+      </c>
+      <c r="D25" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="184"/>
+      <c r="F25" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="184"/>
+      <c r="C26" s="187">
+        <v>2</v>
+      </c>
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="184"/>
+      <c r="C27" s="187">
+        <v>3</v>
+      </c>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="184"/>
+      <c r="C30" s="186" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="184"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="184"/>
+      <c r="C31" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="184"/>
+      <c r="C32" s="184"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="187">
+        <v>6</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="187">
+        <v>50</v>
+      </c>
+      <c r="I33" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="184"/>
+      <c r="C34" s="187">
+        <v>7</v>
+      </c>
+      <c r="D34" s="184"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="187">
+        <v>20</v>
+      </c>
+      <c r="I34" s="184"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="184"/>
+      <c r="C35" s="187">
+        <v>8</v>
+      </c>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="187">
+        <v>30</v>
+      </c>
+      <c r="I35" s="184"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="E37" s="115"/>
+      <c r="F37" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="184"/>
+      <c r="C38" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="D38" s="184"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="184"/>
+      <c r="C39" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="184"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -24441,10 +26052,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24511,28 +26122,36 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="107" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -24546,15 +26165,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="A16:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -24601,247 +26220,652 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+    <row r="6" spans="1:24" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="140" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2"/>
-      <c r="Q9" t="s">
-        <v>182</v>
-      </c>
-      <c r="R9" t="s">
-        <v>185</v>
-      </c>
-      <c r="T9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q9" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="R9" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="S9" s="184" t="s">
+        <v>233</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="U9" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="V9" s="184"/>
+      <c r="W9" s="184"/>
+      <c r="X9" s="184"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="2"/>
-      <c r="Q10" t="s">
-        <v>183</v>
-      </c>
-      <c r="R10" t="s">
-        <v>185</v>
-      </c>
-      <c r="T10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="186" t="s">
+        <v>237</v>
+      </c>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="V10" s="184"/>
+      <c r="W10" s="184"/>
+      <c r="X10" s="184"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="Q11" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" t="s">
-        <v>185</v>
-      </c>
-      <c r="T11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q13" t="s">
-        <v>186</v>
-      </c>
-      <c r="R13" t="s">
-        <v>190</v>
-      </c>
-      <c r="T13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="Q14" t="s">
-        <v>187</v>
-      </c>
-      <c r="R14" t="s">
-        <v>190</v>
-      </c>
-      <c r="T14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="V11" s="184"/>
+      <c r="W11" s="184"/>
+      <c r="X11" s="184"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
+      <c r="W12" s="184"/>
+      <c r="X12" s="184"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q13" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="R13" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="S13" s="184" t="s">
+        <v>244</v>
+      </c>
+      <c r="T13" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="U13" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="V13" s="184"/>
+      <c r="W13" s="184"/>
+      <c r="X13" s="184"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="V14" s="184"/>
+      <c r="W14" s="184"/>
+      <c r="X14" s="184"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
-      <c r="Q15" t="s">
-        <v>188</v>
-      </c>
-      <c r="R15" t="s">
-        <v>190</v>
-      </c>
-      <c r="T15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="V15" s="184"/>
+      <c r="W15" s="184"/>
+      <c r="X15" s="184"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="87"/>
       <c r="C16" s="88"/>
       <c r="D16" s="89"/>
       <c r="E16" s="90"/>
       <c r="F16" s="91"/>
       <c r="G16" s="86"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="87"/>
+      <c r="M16" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
+      <c r="W16" s="184"/>
+      <c r="X16" s="184"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="87" t="s">
+        <v>236</v>
+      </c>
       <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
+      <c r="D17" s="89" t="s">
+        <v>273</v>
+      </c>
       <c r="E17" s="90"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="86"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="108"/>
+      <c r="G17" s="115"/>
+      <c r="Q17" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="R17" s="187">
+        <v>1</v>
+      </c>
+      <c r="S17" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="T17" s="184"/>
+      <c r="U17" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="V17" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="W17" s="184"/>
+      <c r="X17" s="184"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="90"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="90"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="86"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="115"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="187">
+        <v>2</v>
+      </c>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="186" t="s">
+        <v>247</v>
+      </c>
+      <c r="W18" s="184"/>
+      <c r="X18" s="184"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87" t="s">
+        <v>269</v>
+      </c>
       <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="86"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E19" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="108"/>
+      <c r="G19" s="115"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="187">
+        <v>3</v>
+      </c>
+      <c r="S19" s="184"/>
+      <c r="T19" s="184"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="186" t="s">
+        <v>240</v>
+      </c>
+      <c r="W19" s="184"/>
+      <c r="X19" s="184"/>
+    </row>
+    <row r="20" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="88"/>
-      <c r="C20" s="92"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="90"/>
       <c r="E20" s="90"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="86"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="87"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="115"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
+      <c r="W20" s="184"/>
+      <c r="X20" s="184"/>
+    </row>
+    <row r="21" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="88"/>
       <c r="C21" s="92"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="90"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="86"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="90"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="115"/>
+      <c r="Q21" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="R21" s="186" t="s">
+        <v>252</v>
+      </c>
+      <c r="S21" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="T21" s="59" t="s">
+        <v>234</v>
+      </c>
+      <c r="U21" s="186" t="s">
+        <v>235</v>
+      </c>
+      <c r="V21" s="184" t="s">
+        <v>254</v>
+      </c>
+      <c r="W21" s="184"/>
+      <c r="X21" s="184"/>
+    </row>
+    <row r="22" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="87" t="s">
+        <v>266</v>
+      </c>
+      <c r="C22" s="92"/>
+      <c r="D22" s="89" t="s">
+        <v>280</v>
+      </c>
       <c r="E22" s="90"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="86"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="115"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="186" t="s">
+        <v>255</v>
+      </c>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="186" t="s">
+        <v>238</v>
+      </c>
+      <c r="V22" s="184"/>
+      <c r="W22" s="184"/>
+      <c r="X22" s="184"/>
+    </row>
+    <row r="23" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="88"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="115"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="186" t="s">
+        <v>256</v>
+      </c>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="186" t="s">
+        <v>241</v>
+      </c>
+      <c r="V23" s="184"/>
+      <c r="W23" s="184"/>
+      <c r="X23" s="184"/>
+    </row>
+    <row r="24" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="115"/>
+      <c r="C24" s="87" t="s">
+        <v>272</v>
+      </c>
       <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="86"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="F24" s="90"/>
+      <c r="G24" s="108"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
+      <c r="W24" s="184"/>
+      <c r="X24" s="184"/>
+    </row>
+    <row r="25" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="90"/>
       <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="86"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="89"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="115"/>
+      <c r="Q25" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="R25" s="187">
+        <v>6</v>
+      </c>
+      <c r="S25" s="184" t="s">
+        <v>257</v>
+      </c>
+      <c r="T25" s="184"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="W25" s="187">
+        <v>50</v>
+      </c>
+      <c r="X25" s="184" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="90"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="86"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="90"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="115"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="187">
+        <v>7</v>
+      </c>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
+      <c r="W26" s="187">
+        <v>20</v>
+      </c>
+      <c r="X26" s="184"/>
+    </row>
+    <row r="27" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="87" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="115"/>
+      <c r="D27" s="89" t="s">
+        <v>279</v>
+      </c>
       <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="86"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="115"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="187">
+        <v>8</v>
+      </c>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
+      <c r="W27" s="187">
+        <v>30</v>
+      </c>
+      <c r="X27" s="184"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="90"/>
       <c r="E28" s="90"/>
       <c r="F28" s="90"/>
-      <c r="G28" s="86"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="87"/>
-      <c r="C29" s="86"/>
+      <c r="G28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
+      <c r="W28" s="115"/>
+      <c r="X28" s="115"/>
+    </row>
+    <row r="29" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="115"/>
+      <c r="C29" s="87" t="s">
+        <v>194</v>
+      </c>
       <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="90"/>
+      <c r="G29" s="115"/>
+      <c r="Q29" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="R29" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="S29" s="184" t="s">
+        <v>260</v>
+      </c>
+      <c r="T29" s="115"/>
+      <c r="U29" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="V29" s="186" t="s">
+        <v>262</v>
+      </c>
+      <c r="W29" s="115"/>
+      <c r="X29" s="115"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="87"/>
       <c r="C30" s="87"/>
       <c r="D30" s="90"/>
       <c r="E30" s="90"/>
       <c r="F30" s="86"/>
       <c r="G30" s="86"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="186" t="s">
+        <v>246</v>
+      </c>
+      <c r="S30" s="184"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="186" t="s">
+        <v>263</v>
+      </c>
+      <c r="W30" s="115"/>
+      <c r="X30" s="115"/>
+    </row>
+    <row r="31" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" s="87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="90"/>
+      <c r="F31" s="108"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="186" t="s">
+        <v>248</v>
+      </c>
+      <c r="S31" s="184"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="186" t="s">
+        <v>264</v>
+      </c>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+    </row>
+    <row r="32" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="108"/>
+    </row>
+    <row r="33" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B33" s="87"/>
+      <c r="C33" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" s="108"/>
+    </row>
+    <row r="35" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B35" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="90"/>
+      <c r="F35" s="108"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="108"/>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="87"/>
+      <c r="C37" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="108"/>
+    </row>
+    <row r="39" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" s="88"/>
+      <c r="D39" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" s="90"/>
+      <c r="F39" s="108"/>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="108"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="108"/>
+    </row>
+    <row r="43" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="87" t="s">
+        <v>268</v>
+      </c>
+      <c r="C43" s="88"/>
+      <c r="D43" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="108"/>
+    </row>
+    <row r="44" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="108"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B45" s="87"/>
+      <c r="C45" s="87" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="90"/>
+      <c r="E45" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F45" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -24924,64 +26948,64 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="142" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="125" t="s">
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
     </row>
     <row r="8" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="125" t="s">
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="86"/>
@@ -25257,44 +27281,44 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="125" t="s">
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -25461,60 +27485,60 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="140" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="125" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
     </row>
     <row r="7" spans="1:19" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="139" t="s">
+      <c r="A7" s="140"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
+      <c r="I7" s="151"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="151"/>
     </row>
     <row r="8" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="139" t="s">
+      <c r="A8" s="140"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
+      <c r="M8" s="151"/>
+      <c r="N8" s="151"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -25531,24 +27555,24 @@
       <c r="B11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
-      <c r="Q12" s="142"/>
-      <c r="R12" s="142"/>
-      <c r="S12" s="142"/>
+      <c r="A12" s="148"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
+      <c r="A13" s="148"/>
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="148"/>
+      <c r="S13" s="148"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -25617,17 +27641,17 @@
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
+      <c r="A19" s="148"/>
       <c r="K19" s="86"/>
       <c r="L19" s="86"/>
       <c r="M19" s="86"/>
       <c r="N19" s="86"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
-      <c r="S19" s="142"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
+      <c r="A20" s="148"/>
       <c r="B20" t="s">
         <v>52</v>
       </c>
@@ -25641,9 +27665,9 @@
       <c r="N20" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="Q20" s="142"/>
-      <c r="R20" s="142"/>
-      <c r="S20" s="142"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
@@ -25665,9 +27689,9 @@
       <c r="N21" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="148"/>
+      <c r="S21" s="148"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K22" s="86" t="s">
@@ -25842,9 +27866,9 @@
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38" s="98"/>
-      <c r="C38" s="131"/>
-      <c r="D38" s="131"/>
-      <c r="E38" s="131"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
       <c r="F38" s="93"/>
       <c r="G38" s="93"/>
       <c r="H38" s="93"/>
@@ -25861,9 +27885,9 @@
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39" s="93"/>
-      <c r="C39" s="131"/>
-      <c r="D39" s="131"/>
-      <c r="E39" s="131"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
       <c r="F39" s="93"/>
       <c r="G39" s="93"/>
       <c r="H39" s="93"/>
@@ -25880,9 +27904,9 @@
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40" s="93"/>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
       <c r="F40" s="93"/>
       <c r="G40" s="93"/>
       <c r="H40" s="93"/>
@@ -26032,9 +28056,9 @@
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48" s="98"/>
-      <c r="C48" s="131"/>
-      <c r="D48" s="131"/>
-      <c r="E48" s="131"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
       <c r="F48" s="93"/>
       <c r="G48" s="93"/>
       <c r="H48" s="93"/>
@@ -26051,9 +28075,9 @@
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="93"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="131"/>
-      <c r="E49" s="131"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
       <c r="F49" s="93"/>
       <c r="G49" s="93"/>
       <c r="H49" s="93"/>
@@ -26070,9 +28094,9 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="93"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
       <c r="F50" s="93"/>
       <c r="G50" s="93"/>
       <c r="H50" s="93"/>
@@ -26222,9 +28246,9 @@
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" s="93"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="152"/>
+      <c r="E58" s="152"/>
       <c r="F58" s="93"/>
       <c r="G58" s="93"/>
       <c r="H58" s="93"/>
@@ -26241,9 +28265,9 @@
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" s="93"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
       <c r="F59" s="93"/>
       <c r="G59" s="93"/>
       <c r="H59" s="93"/>
@@ -26260,9 +28284,9 @@
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" s="93"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="152"/>
+      <c r="E60" s="152"/>
       <c r="F60" s="93"/>
       <c r="G60" s="93"/>
       <c r="H60" s="93"/>
@@ -26431,12 +28455,12 @@
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="98"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
+      <c r="C69" s="152"/>
+      <c r="D69" s="152"/>
+      <c r="E69" s="152"/>
+      <c r="F69" s="152"/>
+      <c r="G69" s="152"/>
+      <c r="H69" s="152"/>
       <c r="I69" s="93"/>
       <c r="J69" s="93"/>
       <c r="K69" s="93"/>
@@ -26450,12 +28474,12 @@
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="93"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="131"/>
-      <c r="E70" s="131"/>
-      <c r="F70" s="131"/>
-      <c r="G70" s="131"/>
-      <c r="H70" s="131"/>
+      <c r="C70" s="152"/>
+      <c r="D70" s="152"/>
+      <c r="E70" s="152"/>
+      <c r="F70" s="152"/>
+      <c r="G70" s="152"/>
+      <c r="H70" s="152"/>
       <c r="I70" s="93"/>
       <c r="J70" s="93"/>
       <c r="K70" s="93"/>
@@ -26469,12 +28493,12 @@
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="93"/>
-      <c r="C71" s="131"/>
-      <c r="D71" s="131"/>
-      <c r="E71" s="131"/>
-      <c r="F71" s="131"/>
-      <c r="G71" s="131"/>
-      <c r="H71" s="131"/>
+      <c r="C71" s="152"/>
+      <c r="D71" s="152"/>
+      <c r="E71" s="152"/>
+      <c r="F71" s="152"/>
+      <c r="G71" s="152"/>
+      <c r="H71" s="152"/>
       <c r="I71" s="93"/>
       <c r="J71" s="93"/>
       <c r="K71" s="93"/>
@@ -26621,12 +28645,12 @@
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79" s="98"/>
-      <c r="C79" s="131"/>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
-      <c r="F79" s="131"/>
-      <c r="G79" s="131"/>
-      <c r="H79" s="131"/>
+      <c r="C79" s="152"/>
+      <c r="D79" s="152"/>
+      <c r="E79" s="152"/>
+      <c r="F79" s="152"/>
+      <c r="G79" s="152"/>
+      <c r="H79" s="152"/>
       <c r="I79" s="93"/>
       <c r="J79" s="93"/>
       <c r="K79" s="93"/>
@@ -26640,12 +28664,12 @@
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80" s="93"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="131"/>
-      <c r="E80" s="131"/>
-      <c r="F80" s="131"/>
-      <c r="G80" s="131"/>
-      <c r="H80" s="131"/>
+      <c r="C80" s="152"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="152"/>
+      <c r="F80" s="152"/>
+      <c r="G80" s="152"/>
+      <c r="H80" s="152"/>
       <c r="I80" s="93"/>
       <c r="J80" s="93"/>
       <c r="K80" s="93"/>
@@ -26659,12 +28683,12 @@
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81" s="93"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
+      <c r="C81" s="152"/>
+      <c r="D81" s="152"/>
+      <c r="E81" s="152"/>
+      <c r="F81" s="152"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="152"/>
       <c r="I81" s="93"/>
       <c r="J81" s="93"/>
       <c r="K81" s="93"/>
@@ -26769,48 +28793,48 @@
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" s="98"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="131"/>
-      <c r="E89" s="131"/>
-      <c r="F89" s="131"/>
-      <c r="G89" s="131"/>
-      <c r="H89" s="131"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="152"/>
+      <c r="E89" s="152"/>
+      <c r="F89" s="152"/>
+      <c r="G89" s="152"/>
+      <c r="H89" s="152"/>
       <c r="I89" s="93"/>
       <c r="J89" s="93"/>
       <c r="K89" s="93"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" s="93"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="131"/>
-      <c r="F90" s="131"/>
-      <c r="G90" s="131"/>
-      <c r="H90" s="131"/>
+      <c r="C90" s="152"/>
+      <c r="D90" s="152"/>
+      <c r="E90" s="152"/>
+      <c r="F90" s="152"/>
+      <c r="G90" s="152"/>
+      <c r="H90" s="152"/>
       <c r="I90" s="93"/>
       <c r="J90" s="93"/>
       <c r="K90" s="93"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" s="93"/>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="131"/>
-      <c r="F91" s="131"/>
-      <c r="G91" s="131"/>
-      <c r="H91" s="131"/>
+      <c r="C91" s="152"/>
+      <c r="D91" s="152"/>
+      <c r="E91" s="152"/>
+      <c r="F91" s="152"/>
+      <c r="G91" s="152"/>
+      <c r="H91" s="152"/>
       <c r="I91" s="93"/>
       <c r="J91" s="93"/>
       <c r="K91" s="93"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" s="93"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="131"/>
-      <c r="H92" s="131"/>
+      <c r="C92" s="152"/>
+      <c r="D92" s="152"/>
+      <c r="E92" s="152"/>
+      <c r="F92" s="152"/>
+      <c r="G92" s="152"/>
+      <c r="H92" s="152"/>
       <c r="I92" s="93"/>
       <c r="J92" s="93"/>
       <c r="K92" s="93"/>
@@ -26829,31 +28853,6 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="A6:G8"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:H71"/>
     <mergeCell ref="C91:E91"/>
     <mergeCell ref="F91:H91"/>
     <mergeCell ref="C92:E92"/>
@@ -26870,6 +28869,31 @@
     <mergeCell ref="C79:E79"/>
     <mergeCell ref="F79:H79"/>
     <mergeCell ref="C80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="A6:G8"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q13:S13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
